--- a/app/src/main/assets/planety_quizz.xlsx
+++ b/app/src/main/assets/planety_quizz.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\barbo\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/24b8b251d8fae0f4/PEVS/__BAKALARKA/app/src/main/assets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C90CBB8E-5315-4C0C-B1B1-8548AA6FBBDF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="7" documentId="8_{C90CBB8E-5315-4C0C-B1B1-8548AA6FBBDF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E74A45A8-DC97-44CF-8782-860CAA993E4F}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{59B42603-5E37-44C8-B453-97DD41C0E15D}"/>
+    <workbookView xWindow="2424" yWindow="2880" windowWidth="17280" windowHeight="9072" xr2:uid="{59B42603-5E37-44C8-B453-97DD41C0E15D}"/>
   </bookViews>
   <sheets>
     <sheet name="Hárok1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="34">
   <si>
     <t>SLNKO</t>
   </si>
@@ -90,6 +90,54 @@
   </si>
   <si>
     <t>Odpoved 8</t>
+  </si>
+  <si>
+    <t>Odpoved 9</t>
+  </si>
+  <si>
+    <t>Odpoved 10</t>
+  </si>
+  <si>
+    <t>Odpoved 11</t>
+  </si>
+  <si>
+    <t>Odpoved 12</t>
+  </si>
+  <si>
+    <t>Odpoved 13</t>
+  </si>
+  <si>
+    <t>Odpoved 14</t>
+  </si>
+  <si>
+    <t>Odpoved 15</t>
+  </si>
+  <si>
+    <t>Odpoved 16</t>
+  </si>
+  <si>
+    <t>Spravna 1</t>
+  </si>
+  <si>
+    <t>Spravna 2</t>
+  </si>
+  <si>
+    <t>Spravna 3</t>
+  </si>
+  <si>
+    <t>Spravna 4</t>
+  </si>
+  <si>
+    <t>Spravna 5</t>
+  </si>
+  <si>
+    <t>Spravna 6</t>
+  </si>
+  <si>
+    <t>Spravna 7</t>
+  </si>
+  <si>
+    <t>Spravna 8</t>
   </si>
 </sst>
 </file>
@@ -449,10 +497,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89EE18A4-0E79-4F3E-B37F-340BDF55F156}">
-  <dimension ref="A1:C8"/>
+  <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:C8"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -460,7 +508,7 @@
     <col min="2" max="2" width="12.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -470,8 +518,14 @@
       <c r="C1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -481,8 +535,14 @@
       <c r="C2" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -492,8 +552,14 @@
       <c r="C3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>0</v>
       </c>
@@ -503,8 +569,14 @@
       <c r="C4" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>1</v>
       </c>
@@ -514,8 +586,14 @@
       <c r="C5" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D5" t="s">
+        <v>22</v>
+      </c>
+      <c r="E5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>1</v>
       </c>
@@ -525,8 +603,14 @@
       <c r="C6" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D6" t="s">
+        <v>23</v>
+      </c>
+      <c r="E6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>1</v>
       </c>
@@ -536,8 +620,14 @@
       <c r="C7" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D7" t="s">
+        <v>24</v>
+      </c>
+      <c r="E7" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>1</v>
       </c>
@@ -546,6 +636,12 @@
       </c>
       <c r="C8" t="s">
         <v>17</v>
+      </c>
+      <c r="D8" t="s">
+        <v>25</v>
+      </c>
+      <c r="E8" t="s">
+        <v>33</v>
       </c>
     </row>
   </sheetData>

--- a/app/src/main/assets/planety_quizz.xlsx
+++ b/app/src/main/assets/planety_quizz.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/24b8b251d8fae0f4/PEVS/__BAKALARKA/app/src/main/assets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="7" documentId="8_{C90CBB8E-5315-4C0C-B1B1-8548AA6FBBDF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E74A45A8-DC97-44CF-8782-860CAA993E4F}"/>
+  <xr:revisionPtr revIDLastSave="50" documentId="8_{C90CBB8E-5315-4C0C-B1B1-8548AA6FBBDF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4E723306-D1DC-4BC7-BBE4-9A4457B025DC}"/>
   <bookViews>
-    <workbookView xWindow="2424" yWindow="2880" windowWidth="17280" windowHeight="9072" xr2:uid="{59B42603-5E37-44C8-B453-97DD41C0E15D}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{59B42603-5E37-44C8-B453-97DD41C0E15D}"/>
   </bookViews>
   <sheets>
     <sheet name="Hárok1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="450" uniqueCount="47">
   <si>
     <t>SLNKO</t>
   </si>
@@ -56,18 +56,6 @@
     <t>Otazka slnko 4</t>
   </si>
   <si>
-    <t>Otazka mars 1</t>
-  </si>
-  <si>
-    <t>Otazka mars 2</t>
-  </si>
-  <si>
-    <t>Otazka mars 3</t>
-  </si>
-  <si>
-    <t>Otazka mars 4</t>
-  </si>
-  <si>
     <t>Odpoved 1</t>
   </si>
   <si>
@@ -138,6 +126,57 @@
   </si>
   <si>
     <t>Spravna 8</t>
+  </si>
+  <si>
+    <t>Otazka slnko 5</t>
+  </si>
+  <si>
+    <t>Otazka slnko 6</t>
+  </si>
+  <si>
+    <t>Otazka slnko 7</t>
+  </si>
+  <si>
+    <t>Otazka slnko 8</t>
+  </si>
+  <si>
+    <t>Otazka slnko 9</t>
+  </si>
+  <si>
+    <t>Otazka slnko 10</t>
+  </si>
+  <si>
+    <t>Spravna 9</t>
+  </si>
+  <si>
+    <t>Spravna 10</t>
+  </si>
+  <si>
+    <t>Odpoved 17</t>
+  </si>
+  <si>
+    <t>Odpoved 18</t>
+  </si>
+  <si>
+    <t>MERKUR</t>
+  </si>
+  <si>
+    <t>VENUSA</t>
+  </si>
+  <si>
+    <t>ZEM</t>
+  </si>
+  <si>
+    <t>JUPITER</t>
+  </si>
+  <si>
+    <t>SATURN</t>
+  </si>
+  <si>
+    <t>NEPTUN</t>
+  </si>
+  <si>
+    <t>URAN</t>
   </si>
 </sst>
 </file>
@@ -198,6 +237,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -497,10 +540,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89EE18A4-0E79-4F3E-B37F-340BDF55F156}">
-  <dimension ref="A1:E8"/>
+  <dimension ref="A1:E90"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -516,13 +559,13 @@
         <v>2</v>
       </c>
       <c r="C1" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="E1" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
@@ -533,13 +576,13 @@
         <v>3</v>
       </c>
       <c r="C2" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="D2" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="E2" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
@@ -550,13 +593,13 @@
         <v>4</v>
       </c>
       <c r="C3" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="E3" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
@@ -567,81 +610,1475 @@
         <v>5</v>
       </c>
       <c r="C4" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="E4" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B5" t="s">
-        <v>6</v>
+        <v>30</v>
       </c>
       <c r="C5" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D5" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="E5" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B6" t="s">
-        <v>7</v>
+        <v>31</v>
       </c>
       <c r="C6" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D6" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="E6" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B7" t="s">
-        <v>8</v>
+        <v>32</v>
       </c>
       <c r="C7" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="D7" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E7" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B8" t="s">
+        <v>33</v>
+      </c>
+      <c r="C8" t="s">
+        <v>13</v>
+      </c>
+      <c r="D8" t="s">
+        <v>21</v>
+      </c>
+      <c r="E8" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B9" t="s">
+        <v>34</v>
+      </c>
+      <c r="C9" t="s">
+        <v>14</v>
+      </c>
+      <c r="D9" t="s">
+        <v>38</v>
+      </c>
+      <c r="E9" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>0</v>
+      </c>
+      <c r="B10" t="s">
+        <v>35</v>
+      </c>
+      <c r="C10" t="s">
+        <v>15</v>
+      </c>
+      <c r="D10" t="s">
+        <v>39</v>
+      </c>
+      <c r="E10" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>40</v>
+      </c>
+      <c r="B11" t="s">
+        <v>2</v>
+      </c>
+      <c r="C11" t="s">
+        <v>6</v>
+      </c>
+      <c r="D11" t="s">
+        <v>14</v>
+      </c>
+      <c r="E11" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>40</v>
+      </c>
+      <c r="B12" t="s">
+        <v>3</v>
+      </c>
+      <c r="C12" t="s">
+        <v>7</v>
+      </c>
+      <c r="D12" t="s">
+        <v>15</v>
+      </c>
+      <c r="E12" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>40</v>
+      </c>
+      <c r="B13" t="s">
+        <v>4</v>
+      </c>
+      <c r="C13" t="s">
+        <v>8</v>
+      </c>
+      <c r="D13" t="s">
+        <v>16</v>
+      </c>
+      <c r="E13" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>40</v>
+      </c>
+      <c r="B14" t="s">
+        <v>5</v>
+      </c>
+      <c r="C14" t="s">
+        <v>9</v>
+      </c>
+      <c r="D14" t="s">
+        <v>17</v>
+      </c>
+      <c r="E14" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>40</v>
+      </c>
+      <c r="B15" t="s">
+        <v>30</v>
+      </c>
+      <c r="C15" t="s">
+        <v>10</v>
+      </c>
+      <c r="D15" t="s">
+        <v>18</v>
+      </c>
+      <c r="E15" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>40</v>
+      </c>
+      <c r="B16" t="s">
+        <v>31</v>
+      </c>
+      <c r="C16" t="s">
+        <v>11</v>
+      </c>
+      <c r="D16" t="s">
+        <v>19</v>
+      </c>
+      <c r="E16" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>40</v>
+      </c>
+      <c r="B17" t="s">
+        <v>32</v>
+      </c>
+      <c r="C17" t="s">
+        <v>12</v>
+      </c>
+      <c r="D17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>40</v>
+      </c>
+      <c r="B18" t="s">
+        <v>33</v>
+      </c>
+      <c r="C18" t="s">
+        <v>13</v>
+      </c>
+      <c r="D18" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>40</v>
+      </c>
+      <c r="B19" t="s">
+        <v>34</v>
+      </c>
+      <c r="C19" t="s">
+        <v>14</v>
+      </c>
+      <c r="D19" t="s">
+        <v>38</v>
+      </c>
+      <c r="E19" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>40</v>
+      </c>
+      <c r="B20" t="s">
+        <v>35</v>
+      </c>
+      <c r="C20" t="s">
+        <v>15</v>
+      </c>
+      <c r="D20" t="s">
+        <v>39</v>
+      </c>
+      <c r="E20" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>41</v>
+      </c>
+      <c r="B21" t="s">
+        <v>2</v>
+      </c>
+      <c r="C21" t="s">
+        <v>6</v>
+      </c>
+      <c r="D21" t="s">
+        <v>14</v>
+      </c>
+      <c r="E21" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>41</v>
+      </c>
+      <c r="B22" t="s">
+        <v>3</v>
+      </c>
+      <c r="C22" t="s">
+        <v>7</v>
+      </c>
+      <c r="D22" t="s">
+        <v>15</v>
+      </c>
+      <c r="E22" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>41</v>
+      </c>
+      <c r="B23" t="s">
+        <v>4</v>
+      </c>
+      <c r="C23" t="s">
+        <v>8</v>
+      </c>
+      <c r="D23" t="s">
+        <v>16</v>
+      </c>
+      <c r="E23" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>41</v>
+      </c>
+      <c r="B24" t="s">
+        <v>5</v>
+      </c>
+      <c r="C24" t="s">
+        <v>9</v>
+      </c>
+      <c r="D24" t="s">
+        <v>17</v>
+      </c>
+      <c r="E24" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>41</v>
+      </c>
+      <c r="B25" t="s">
+        <v>30</v>
+      </c>
+      <c r="C25" t="s">
+        <v>10</v>
+      </c>
+      <c r="D25" t="s">
+        <v>18</v>
+      </c>
+      <c r="E25" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>41</v>
+      </c>
+      <c r="B26" t="s">
+        <v>31</v>
+      </c>
+      <c r="C26" t="s">
+        <v>11</v>
+      </c>
+      <c r="D26" t="s">
+        <v>19</v>
+      </c>
+      <c r="E26" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>41</v>
+      </c>
+      <c r="B27" t="s">
+        <v>32</v>
+      </c>
+      <c r="C27" t="s">
+        <v>12</v>
+      </c>
+      <c r="D27" t="s">
+        <v>20</v>
+      </c>
+      <c r="E27" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>41</v>
+      </c>
+      <c r="B28" t="s">
+        <v>33</v>
+      </c>
+      <c r="C28" t="s">
+        <v>13</v>
+      </c>
+      <c r="D28" t="s">
+        <v>21</v>
+      </c>
+      <c r="E28" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>41</v>
+      </c>
+      <c r="B29" t="s">
+        <v>34</v>
+      </c>
+      <c r="C29" t="s">
+        <v>14</v>
+      </c>
+      <c r="D29" t="s">
+        <v>38</v>
+      </c>
+      <c r="E29" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>41</v>
+      </c>
+      <c r="B30" t="s">
+        <v>35</v>
+      </c>
+      <c r="C30" t="s">
+        <v>15</v>
+      </c>
+      <c r="D30" t="s">
+        <v>39</v>
+      </c>
+      <c r="E30" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>42</v>
+      </c>
+      <c r="B31" t="s">
+        <v>2</v>
+      </c>
+      <c r="C31" t="s">
+        <v>6</v>
+      </c>
+      <c r="D31" t="s">
+        <v>14</v>
+      </c>
+      <c r="E31" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>42</v>
+      </c>
+      <c r="B32" t="s">
+        <v>3</v>
+      </c>
+      <c r="C32" t="s">
+        <v>7</v>
+      </c>
+      <c r="D32" t="s">
+        <v>15</v>
+      </c>
+      <c r="E32" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>42</v>
+      </c>
+      <c r="B33" t="s">
+        <v>4</v>
+      </c>
+      <c r="C33" t="s">
+        <v>8</v>
+      </c>
+      <c r="D33" t="s">
+        <v>16</v>
+      </c>
+      <c r="E33" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>42</v>
+      </c>
+      <c r="B34" t="s">
+        <v>5</v>
+      </c>
+      <c r="C34" t="s">
+        <v>9</v>
+      </c>
+      <c r="D34" t="s">
+        <v>17</v>
+      </c>
+      <c r="E34" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>42</v>
+      </c>
+      <c r="B35" t="s">
+        <v>30</v>
+      </c>
+      <c r="C35" t="s">
+        <v>10</v>
+      </c>
+      <c r="D35" t="s">
+        <v>18</v>
+      </c>
+      <c r="E35" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>42</v>
+      </c>
+      <c r="B36" t="s">
+        <v>31</v>
+      </c>
+      <c r="C36" t="s">
+        <v>11</v>
+      </c>
+      <c r="D36" t="s">
+        <v>19</v>
+      </c>
+      <c r="E36" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>42</v>
+      </c>
+      <c r="B37" t="s">
+        <v>32</v>
+      </c>
+      <c r="C37" t="s">
+        <v>12</v>
+      </c>
+      <c r="D37" t="s">
+        <v>20</v>
+      </c>
+      <c r="E37" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>42</v>
+      </c>
+      <c r="B38" t="s">
+        <v>33</v>
+      </c>
+      <c r="C38" t="s">
+        <v>13</v>
+      </c>
+      <c r="D38" t="s">
+        <v>21</v>
+      </c>
+      <c r="E38" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>42</v>
+      </c>
+      <c r="B39" t="s">
+        <v>34</v>
+      </c>
+      <c r="C39" t="s">
+        <v>14</v>
+      </c>
+      <c r="D39" t="s">
+        <v>38</v>
+      </c>
+      <c r="E39" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>42</v>
+      </c>
+      <c r="B40" t="s">
+        <v>35</v>
+      </c>
+      <c r="C40" t="s">
+        <v>15</v>
+      </c>
+      <c r="D40" t="s">
+        <v>39</v>
+      </c>
+      <c r="E40" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
         <v>1</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B41" t="s">
+        <v>2</v>
+      </c>
+      <c r="C41" t="s">
+        <v>6</v>
+      </c>
+      <c r="D41" t="s">
+        <v>14</v>
+      </c>
+      <c r="E41" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>1</v>
+      </c>
+      <c r="B42" t="s">
+        <v>3</v>
+      </c>
+      <c r="C42" t="s">
+        <v>7</v>
+      </c>
+      <c r="D42" t="s">
+        <v>15</v>
+      </c>
+      <c r="E42" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>1</v>
+      </c>
+      <c r="B43" t="s">
+        <v>4</v>
+      </c>
+      <c r="C43" t="s">
+        <v>8</v>
+      </c>
+      <c r="D43" t="s">
+        <v>16</v>
+      </c>
+      <c r="E43" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>1</v>
+      </c>
+      <c r="B44" t="s">
+        <v>5</v>
+      </c>
+      <c r="C44" t="s">
         <v>9</v>
       </c>
-      <c r="C8" t="s">
+      <c r="D44" t="s">
         <v>17</v>
       </c>
-      <c r="D8" t="s">
+      <c r="E44" t="s">
         <v>25</v>
       </c>
-      <c r="E8" t="s">
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
+        <v>1</v>
+      </c>
+      <c r="B45" t="s">
+        <v>30</v>
+      </c>
+      <c r="C45" t="s">
+        <v>10</v>
+      </c>
+      <c r="D45" t="s">
+        <v>18</v>
+      </c>
+      <c r="E45" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>1</v>
+      </c>
+      <c r="B46" t="s">
+        <v>31</v>
+      </c>
+      <c r="C46" t="s">
+        <v>11</v>
+      </c>
+      <c r="D46" t="s">
+        <v>19</v>
+      </c>
+      <c r="E46" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
+        <v>1</v>
+      </c>
+      <c r="B47" t="s">
+        <v>32</v>
+      </c>
+      <c r="C47" t="s">
+        <v>12</v>
+      </c>
+      <c r="D47" t="s">
+        <v>20</v>
+      </c>
+      <c r="E47" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
+        <v>1</v>
+      </c>
+      <c r="B48" t="s">
         <v>33</v>
+      </c>
+      <c r="C48" t="s">
+        <v>13</v>
+      </c>
+      <c r="D48" t="s">
+        <v>21</v>
+      </c>
+      <c r="E48" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
+        <v>1</v>
+      </c>
+      <c r="B49" t="s">
+        <v>34</v>
+      </c>
+      <c r="C49" t="s">
+        <v>14</v>
+      </c>
+      <c r="D49" t="s">
+        <v>38</v>
+      </c>
+      <c r="E49" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
+        <v>1</v>
+      </c>
+      <c r="B50" t="s">
+        <v>35</v>
+      </c>
+      <c r="C50" t="s">
+        <v>15</v>
+      </c>
+      <c r="D50" t="s">
+        <v>39</v>
+      </c>
+      <c r="E50" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
+        <v>43</v>
+      </c>
+      <c r="B51" t="s">
+        <v>2</v>
+      </c>
+      <c r="C51" t="s">
+        <v>6</v>
+      </c>
+      <c r="D51" t="s">
+        <v>14</v>
+      </c>
+      <c r="E51" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
+        <v>43</v>
+      </c>
+      <c r="B52" t="s">
+        <v>3</v>
+      </c>
+      <c r="C52" t="s">
+        <v>7</v>
+      </c>
+      <c r="D52" t="s">
+        <v>15</v>
+      </c>
+      <c r="E52" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A53" t="s">
+        <v>43</v>
+      </c>
+      <c r="B53" t="s">
+        <v>4</v>
+      </c>
+      <c r="C53" t="s">
+        <v>8</v>
+      </c>
+      <c r="D53" t="s">
+        <v>16</v>
+      </c>
+      <c r="E53" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A54" t="s">
+        <v>43</v>
+      </c>
+      <c r="B54" t="s">
+        <v>5</v>
+      </c>
+      <c r="C54" t="s">
+        <v>9</v>
+      </c>
+      <c r="D54" t="s">
+        <v>17</v>
+      </c>
+      <c r="E54" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A55" t="s">
+        <v>43</v>
+      </c>
+      <c r="B55" t="s">
+        <v>30</v>
+      </c>
+      <c r="C55" t="s">
+        <v>10</v>
+      </c>
+      <c r="D55" t="s">
+        <v>18</v>
+      </c>
+      <c r="E55" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A56" t="s">
+        <v>43</v>
+      </c>
+      <c r="B56" t="s">
+        <v>31</v>
+      </c>
+      <c r="C56" t="s">
+        <v>11</v>
+      </c>
+      <c r="D56" t="s">
+        <v>19</v>
+      </c>
+      <c r="E56" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A57" t="s">
+        <v>43</v>
+      </c>
+      <c r="B57" t="s">
+        <v>32</v>
+      </c>
+      <c r="C57" t="s">
+        <v>12</v>
+      </c>
+      <c r="D57" t="s">
+        <v>20</v>
+      </c>
+      <c r="E57" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A58" t="s">
+        <v>43</v>
+      </c>
+      <c r="B58" t="s">
+        <v>33</v>
+      </c>
+      <c r="C58" t="s">
+        <v>13</v>
+      </c>
+      <c r="D58" t="s">
+        <v>21</v>
+      </c>
+      <c r="E58" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A59" t="s">
+        <v>43</v>
+      </c>
+      <c r="B59" t="s">
+        <v>34</v>
+      </c>
+      <c r="C59" t="s">
+        <v>14</v>
+      </c>
+      <c r="D59" t="s">
+        <v>38</v>
+      </c>
+      <c r="E59" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A60" t="s">
+        <v>43</v>
+      </c>
+      <c r="B60" t="s">
+        <v>35</v>
+      </c>
+      <c r="C60" t="s">
+        <v>15</v>
+      </c>
+      <c r="D60" t="s">
+        <v>39</v>
+      </c>
+      <c r="E60" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A61" t="s">
+        <v>44</v>
+      </c>
+      <c r="B61" t="s">
+        <v>2</v>
+      </c>
+      <c r="C61" t="s">
+        <v>6</v>
+      </c>
+      <c r="D61" t="s">
+        <v>14</v>
+      </c>
+      <c r="E61" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A62" t="s">
+        <v>44</v>
+      </c>
+      <c r="B62" t="s">
+        <v>3</v>
+      </c>
+      <c r="C62" t="s">
+        <v>7</v>
+      </c>
+      <c r="D62" t="s">
+        <v>15</v>
+      </c>
+      <c r="E62" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A63" t="s">
+        <v>44</v>
+      </c>
+      <c r="B63" t="s">
+        <v>4</v>
+      </c>
+      <c r="C63" t="s">
+        <v>8</v>
+      </c>
+      <c r="D63" t="s">
+        <v>16</v>
+      </c>
+      <c r="E63" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A64" t="s">
+        <v>44</v>
+      </c>
+      <c r="B64" t="s">
+        <v>5</v>
+      </c>
+      <c r="C64" t="s">
+        <v>9</v>
+      </c>
+      <c r="D64" t="s">
+        <v>17</v>
+      </c>
+      <c r="E64" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A65" t="s">
+        <v>44</v>
+      </c>
+      <c r="B65" t="s">
+        <v>30</v>
+      </c>
+      <c r="C65" t="s">
+        <v>10</v>
+      </c>
+      <c r="D65" t="s">
+        <v>18</v>
+      </c>
+      <c r="E65" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A66" t="s">
+        <v>44</v>
+      </c>
+      <c r="B66" t="s">
+        <v>31</v>
+      </c>
+      <c r="C66" t="s">
+        <v>11</v>
+      </c>
+      <c r="D66" t="s">
+        <v>19</v>
+      </c>
+      <c r="E66" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A67" t="s">
+        <v>44</v>
+      </c>
+      <c r="B67" t="s">
+        <v>32</v>
+      </c>
+      <c r="C67" t="s">
+        <v>12</v>
+      </c>
+      <c r="D67" t="s">
+        <v>20</v>
+      </c>
+      <c r="E67" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A68" t="s">
+        <v>44</v>
+      </c>
+      <c r="B68" t="s">
+        <v>33</v>
+      </c>
+      <c r="C68" t="s">
+        <v>13</v>
+      </c>
+      <c r="D68" t="s">
+        <v>21</v>
+      </c>
+      <c r="E68" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A69" t="s">
+        <v>44</v>
+      </c>
+      <c r="B69" t="s">
+        <v>34</v>
+      </c>
+      <c r="C69" t="s">
+        <v>14</v>
+      </c>
+      <c r="D69" t="s">
+        <v>38</v>
+      </c>
+      <c r="E69" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A70" t="s">
+        <v>44</v>
+      </c>
+      <c r="B70" t="s">
+        <v>35</v>
+      </c>
+      <c r="C70" t="s">
+        <v>15</v>
+      </c>
+      <c r="D70" t="s">
+        <v>39</v>
+      </c>
+      <c r="E70" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A71" t="s">
+        <v>46</v>
+      </c>
+      <c r="B71" t="s">
+        <v>2</v>
+      </c>
+      <c r="C71" t="s">
+        <v>6</v>
+      </c>
+      <c r="D71" t="s">
+        <v>14</v>
+      </c>
+      <c r="E71" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A72" t="s">
+        <v>46</v>
+      </c>
+      <c r="B72" t="s">
+        <v>3</v>
+      </c>
+      <c r="C72" t="s">
+        <v>7</v>
+      </c>
+      <c r="D72" t="s">
+        <v>15</v>
+      </c>
+      <c r="E72" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A73" t="s">
+        <v>46</v>
+      </c>
+      <c r="B73" t="s">
+        <v>4</v>
+      </c>
+      <c r="C73" t="s">
+        <v>8</v>
+      </c>
+      <c r="D73" t="s">
+        <v>16</v>
+      </c>
+      <c r="E73" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A74" t="s">
+        <v>46</v>
+      </c>
+      <c r="B74" t="s">
+        <v>5</v>
+      </c>
+      <c r="C74" t="s">
+        <v>9</v>
+      </c>
+      <c r="D74" t="s">
+        <v>17</v>
+      </c>
+      <c r="E74" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A75" t="s">
+        <v>46</v>
+      </c>
+      <c r="B75" t="s">
+        <v>30</v>
+      </c>
+      <c r="C75" t="s">
+        <v>10</v>
+      </c>
+      <c r="D75" t="s">
+        <v>18</v>
+      </c>
+      <c r="E75" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A76" t="s">
+        <v>46</v>
+      </c>
+      <c r="B76" t="s">
+        <v>31</v>
+      </c>
+      <c r="C76" t="s">
+        <v>11</v>
+      </c>
+      <c r="D76" t="s">
+        <v>19</v>
+      </c>
+      <c r="E76" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A77" t="s">
+        <v>46</v>
+      </c>
+      <c r="B77" t="s">
+        <v>32</v>
+      </c>
+      <c r="C77" t="s">
+        <v>12</v>
+      </c>
+      <c r="D77" t="s">
+        <v>20</v>
+      </c>
+      <c r="E77" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A78" t="s">
+        <v>46</v>
+      </c>
+      <c r="B78" t="s">
+        <v>33</v>
+      </c>
+      <c r="C78" t="s">
+        <v>13</v>
+      </c>
+      <c r="D78" t="s">
+        <v>21</v>
+      </c>
+      <c r="E78" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A79" t="s">
+        <v>46</v>
+      </c>
+      <c r="B79" t="s">
+        <v>34</v>
+      </c>
+      <c r="C79" t="s">
+        <v>14</v>
+      </c>
+      <c r="D79" t="s">
+        <v>38</v>
+      </c>
+      <c r="E79" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A80" t="s">
+        <v>46</v>
+      </c>
+      <c r="B80" t="s">
+        <v>35</v>
+      </c>
+      <c r="C80" t="s">
+        <v>15</v>
+      </c>
+      <c r="D80" t="s">
+        <v>39</v>
+      </c>
+      <c r="E80" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A81" t="s">
+        <v>45</v>
+      </c>
+      <c r="B81" t="s">
+        <v>2</v>
+      </c>
+      <c r="C81" t="s">
+        <v>6</v>
+      </c>
+      <c r="D81" t="s">
+        <v>14</v>
+      </c>
+      <c r="E81" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A82" t="s">
+        <v>45</v>
+      </c>
+      <c r="B82" t="s">
+        <v>3</v>
+      </c>
+      <c r="C82" t="s">
+        <v>7</v>
+      </c>
+      <c r="D82" t="s">
+        <v>15</v>
+      </c>
+      <c r="E82" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A83" t="s">
+        <v>45</v>
+      </c>
+      <c r="B83" t="s">
+        <v>4</v>
+      </c>
+      <c r="C83" t="s">
+        <v>8</v>
+      </c>
+      <c r="D83" t="s">
+        <v>16</v>
+      </c>
+      <c r="E83" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A84" t="s">
+        <v>45</v>
+      </c>
+      <c r="B84" t="s">
+        <v>5</v>
+      </c>
+      <c r="C84" t="s">
+        <v>9</v>
+      </c>
+      <c r="D84" t="s">
+        <v>17</v>
+      </c>
+      <c r="E84" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A85" t="s">
+        <v>45</v>
+      </c>
+      <c r="B85" t="s">
+        <v>30</v>
+      </c>
+      <c r="C85" t="s">
+        <v>10</v>
+      </c>
+      <c r="D85" t="s">
+        <v>18</v>
+      </c>
+      <c r="E85" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A86" t="s">
+        <v>45</v>
+      </c>
+      <c r="B86" t="s">
+        <v>31</v>
+      </c>
+      <c r="C86" t="s">
+        <v>11</v>
+      </c>
+      <c r="D86" t="s">
+        <v>19</v>
+      </c>
+      <c r="E86" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A87" t="s">
+        <v>45</v>
+      </c>
+      <c r="B87" t="s">
+        <v>32</v>
+      </c>
+      <c r="C87" t="s">
+        <v>12</v>
+      </c>
+      <c r="D87" t="s">
+        <v>20</v>
+      </c>
+      <c r="E87" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A88" t="s">
+        <v>45</v>
+      </c>
+      <c r="B88" t="s">
+        <v>33</v>
+      </c>
+      <c r="C88" t="s">
+        <v>13</v>
+      </c>
+      <c r="D88" t="s">
+        <v>21</v>
+      </c>
+      <c r="E88" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A89" t="s">
+        <v>45</v>
+      </c>
+      <c r="B89" t="s">
+        <v>34</v>
+      </c>
+      <c r="C89" t="s">
+        <v>14</v>
+      </c>
+      <c r="D89" t="s">
+        <v>38</v>
+      </c>
+      <c r="E89" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A90" t="s">
+        <v>45</v>
+      </c>
+      <c r="B90" t="s">
+        <v>35</v>
+      </c>
+      <c r="C90" t="s">
+        <v>15</v>
+      </c>
+      <c r="D90" t="s">
+        <v>39</v>
+      </c>
+      <c r="E90" t="s">
+        <v>37</v>
       </c>
     </row>
   </sheetData>

--- a/app/src/main/assets/planety_quizz.xlsx
+++ b/app/src/main/assets/planety_quizz.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/24b8b251d8fae0f4/PEVS/__BAKALARKA/app/src/main/assets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="50" documentId="8_{C90CBB8E-5315-4C0C-B1B1-8548AA6FBBDF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4E723306-D1DC-4BC7-BBE4-9A4457B025DC}"/>
+  <xr:revisionPtr revIDLastSave="66" documentId="8_{C90CBB8E-5315-4C0C-B1B1-8548AA6FBBDF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{12827E7D-0BE2-41E9-B279-5F5556CB84C1}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{59B42603-5E37-44C8-B453-97DD41C0E15D}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="450" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="450" uniqueCount="127">
   <si>
     <t>SLNKO</t>
   </si>
@@ -177,6 +177,246 @@
   </si>
   <si>
     <t>URAN</t>
+  </si>
+  <si>
+    <t>Otazka Merkur 1</t>
+  </si>
+  <si>
+    <t>Otazka Merkur 2</t>
+  </si>
+  <si>
+    <t>Otazka Merkur 3</t>
+  </si>
+  <si>
+    <t>Otazka Merkur 4</t>
+  </si>
+  <si>
+    <t>Otazka Merkur 5</t>
+  </si>
+  <si>
+    <t>Otazka Merkur 6</t>
+  </si>
+  <si>
+    <t>Otazka Merkur 7</t>
+  </si>
+  <si>
+    <t>Otazka Merkur 8</t>
+  </si>
+  <si>
+    <t>Otazka Merkur 9</t>
+  </si>
+  <si>
+    <t>Otazka Merkur 10</t>
+  </si>
+  <si>
+    <t>Otazka Venusa 1</t>
+  </si>
+  <si>
+    <t>Otazka Venusa 2</t>
+  </si>
+  <si>
+    <t>Otazka Venusa 3</t>
+  </si>
+  <si>
+    <t>Otazka Venusa 4</t>
+  </si>
+  <si>
+    <t>Otazka Venusa 5</t>
+  </si>
+  <si>
+    <t>Otazka Venusa 6</t>
+  </si>
+  <si>
+    <t>Otazka Venusa 7</t>
+  </si>
+  <si>
+    <t>Otazka Venusa 8</t>
+  </si>
+  <si>
+    <t>Otazka Venusa 9</t>
+  </si>
+  <si>
+    <t>Otazka Venusa 10</t>
+  </si>
+  <si>
+    <t>Otazka Zem 1</t>
+  </si>
+  <si>
+    <t>Otazka Zem 2</t>
+  </si>
+  <si>
+    <t>Otazka Zem 3</t>
+  </si>
+  <si>
+    <t>Otazka Zem 4</t>
+  </si>
+  <si>
+    <t>Otazka Zem 5</t>
+  </si>
+  <si>
+    <t>Otazka Zem 6</t>
+  </si>
+  <si>
+    <t>Otazka Zem 7</t>
+  </si>
+  <si>
+    <t>Otazka Zem 8</t>
+  </si>
+  <si>
+    <t>Otazka Zem 9</t>
+  </si>
+  <si>
+    <t>Otazka Zem 10</t>
+  </si>
+  <si>
+    <t>Otazka mars 1</t>
+  </si>
+  <si>
+    <t>Otazka mars 2</t>
+  </si>
+  <si>
+    <t>Otazka mars 3</t>
+  </si>
+  <si>
+    <t>Otazka mars 4</t>
+  </si>
+  <si>
+    <t>Otazka mars 5</t>
+  </si>
+  <si>
+    <t>Otazka mars 6</t>
+  </si>
+  <si>
+    <t>Otazka mars 7</t>
+  </si>
+  <si>
+    <t>Otazka mars 8</t>
+  </si>
+  <si>
+    <t>Otazka mars 9</t>
+  </si>
+  <si>
+    <t>Otazka mars 10</t>
+  </si>
+  <si>
+    <t>otazka jupiter 1</t>
+  </si>
+  <si>
+    <t>otazka jupiter 2</t>
+  </si>
+  <si>
+    <t>otazka jupiter 3</t>
+  </si>
+  <si>
+    <t>otazka jupiter 4</t>
+  </si>
+  <si>
+    <t>otazka jupiter 5</t>
+  </si>
+  <si>
+    <t>otazka jupiter 6</t>
+  </si>
+  <si>
+    <t>otazka jupiter 7</t>
+  </si>
+  <si>
+    <t>otazka jupiter 8</t>
+  </si>
+  <si>
+    <t>otazka jupiter 9</t>
+  </si>
+  <si>
+    <t>otazka jupiter 10</t>
+  </si>
+  <si>
+    <t>Otazka saturn 1</t>
+  </si>
+  <si>
+    <t>Otazka saturn 2</t>
+  </si>
+  <si>
+    <t>Otazka saturn 3</t>
+  </si>
+  <si>
+    <t>Otazka saturn 4</t>
+  </si>
+  <si>
+    <t>Otazka saturn 5</t>
+  </si>
+  <si>
+    <t>Otazka saturn 6</t>
+  </si>
+  <si>
+    <t>Otazka saturn 7</t>
+  </si>
+  <si>
+    <t>Otazka saturn 8</t>
+  </si>
+  <si>
+    <t>Otazka saturn 9</t>
+  </si>
+  <si>
+    <t>Otazka saturn 10</t>
+  </si>
+  <si>
+    <t>Otazka uran 1</t>
+  </si>
+  <si>
+    <t>Otazka uran 2</t>
+  </si>
+  <si>
+    <t>Otazka uran 3</t>
+  </si>
+  <si>
+    <t>Otazka uran 4</t>
+  </si>
+  <si>
+    <t>Otazka uran 5</t>
+  </si>
+  <si>
+    <t>Otazka uran 6</t>
+  </si>
+  <si>
+    <t>Otazka uran 7</t>
+  </si>
+  <si>
+    <t>Otazka uran 8</t>
+  </si>
+  <si>
+    <t>Otazka uran 9</t>
+  </si>
+  <si>
+    <t>Otazka uran 10</t>
+  </si>
+  <si>
+    <t>Otazka neptun 1</t>
+  </si>
+  <si>
+    <t>Otazka neptun 2</t>
+  </si>
+  <si>
+    <t>Otazka neptun 3</t>
+  </si>
+  <si>
+    <t>Otazka neptun 4</t>
+  </si>
+  <si>
+    <t>Otazka neptun 5</t>
+  </si>
+  <si>
+    <t>Otazka neptun 6</t>
+  </si>
+  <si>
+    <t>Otazka neptun 7</t>
+  </si>
+  <si>
+    <t>Otazka neptun 8</t>
+  </si>
+  <si>
+    <t>Otazka neptun 9</t>
+  </si>
+  <si>
+    <t>Otazka neptun 10</t>
   </si>
 </sst>
 </file>
@@ -542,8 +782,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89EE18A4-0E79-4F3E-B37F-340BDF55F156}">
   <dimension ref="A1:E90"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K9" sqref="K9"/>
+    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
+      <selection activeCell="B93" sqref="B93"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -726,7 +966,7 @@
         <v>40</v>
       </c>
       <c r="B11" t="s">
-        <v>2</v>
+        <v>47</v>
       </c>
       <c r="C11" t="s">
         <v>6</v>
@@ -743,7 +983,7 @@
         <v>40</v>
       </c>
       <c r="B12" t="s">
-        <v>3</v>
+        <v>48</v>
       </c>
       <c r="C12" t="s">
         <v>7</v>
@@ -760,7 +1000,7 @@
         <v>40</v>
       </c>
       <c r="B13" t="s">
-        <v>4</v>
+        <v>49</v>
       </c>
       <c r="C13" t="s">
         <v>8</v>
@@ -777,7 +1017,7 @@
         <v>40</v>
       </c>
       <c r="B14" t="s">
-        <v>5</v>
+        <v>50</v>
       </c>
       <c r="C14" t="s">
         <v>9</v>
@@ -794,7 +1034,7 @@
         <v>40</v>
       </c>
       <c r="B15" t="s">
-        <v>30</v>
+        <v>51</v>
       </c>
       <c r="C15" t="s">
         <v>10</v>
@@ -811,7 +1051,7 @@
         <v>40</v>
       </c>
       <c r="B16" t="s">
-        <v>31</v>
+        <v>52</v>
       </c>
       <c r="C16" t="s">
         <v>11</v>
@@ -828,7 +1068,7 @@
         <v>40</v>
       </c>
       <c r="B17" t="s">
-        <v>32</v>
+        <v>53</v>
       </c>
       <c r="C17" t="s">
         <v>12</v>
@@ -845,7 +1085,7 @@
         <v>40</v>
       </c>
       <c r="B18" t="s">
-        <v>33</v>
+        <v>54</v>
       </c>
       <c r="C18" t="s">
         <v>13</v>
@@ -862,7 +1102,7 @@
         <v>40</v>
       </c>
       <c r="B19" t="s">
-        <v>34</v>
+        <v>55</v>
       </c>
       <c r="C19" t="s">
         <v>14</v>
@@ -879,7 +1119,7 @@
         <v>40</v>
       </c>
       <c r="B20" t="s">
-        <v>35</v>
+        <v>56</v>
       </c>
       <c r="C20" t="s">
         <v>15</v>
@@ -896,7 +1136,7 @@
         <v>41</v>
       </c>
       <c r="B21" t="s">
-        <v>2</v>
+        <v>57</v>
       </c>
       <c r="C21" t="s">
         <v>6</v>
@@ -913,7 +1153,7 @@
         <v>41</v>
       </c>
       <c r="B22" t="s">
-        <v>3</v>
+        <v>58</v>
       </c>
       <c r="C22" t="s">
         <v>7</v>
@@ -930,7 +1170,7 @@
         <v>41</v>
       </c>
       <c r="B23" t="s">
-        <v>4</v>
+        <v>59</v>
       </c>
       <c r="C23" t="s">
         <v>8</v>
@@ -947,7 +1187,7 @@
         <v>41</v>
       </c>
       <c r="B24" t="s">
-        <v>5</v>
+        <v>60</v>
       </c>
       <c r="C24" t="s">
         <v>9</v>
@@ -964,7 +1204,7 @@
         <v>41</v>
       </c>
       <c r="B25" t="s">
-        <v>30</v>
+        <v>61</v>
       </c>
       <c r="C25" t="s">
         <v>10</v>
@@ -981,7 +1221,7 @@
         <v>41</v>
       </c>
       <c r="B26" t="s">
-        <v>31</v>
+        <v>62</v>
       </c>
       <c r="C26" t="s">
         <v>11</v>
@@ -998,7 +1238,7 @@
         <v>41</v>
       </c>
       <c r="B27" t="s">
-        <v>32</v>
+        <v>63</v>
       </c>
       <c r="C27" t="s">
         <v>12</v>
@@ -1015,7 +1255,7 @@
         <v>41</v>
       </c>
       <c r="B28" t="s">
-        <v>33</v>
+        <v>64</v>
       </c>
       <c r="C28" t="s">
         <v>13</v>
@@ -1032,7 +1272,7 @@
         <v>41</v>
       </c>
       <c r="B29" t="s">
-        <v>34</v>
+        <v>65</v>
       </c>
       <c r="C29" t="s">
         <v>14</v>
@@ -1049,7 +1289,7 @@
         <v>41</v>
       </c>
       <c r="B30" t="s">
-        <v>35</v>
+        <v>66</v>
       </c>
       <c r="C30" t="s">
         <v>15</v>
@@ -1066,7 +1306,7 @@
         <v>42</v>
       </c>
       <c r="B31" t="s">
-        <v>2</v>
+        <v>67</v>
       </c>
       <c r="C31" t="s">
         <v>6</v>
@@ -1083,7 +1323,7 @@
         <v>42</v>
       </c>
       <c r="B32" t="s">
-        <v>3</v>
+        <v>68</v>
       </c>
       <c r="C32" t="s">
         <v>7</v>
@@ -1100,7 +1340,7 @@
         <v>42</v>
       </c>
       <c r="B33" t="s">
-        <v>4</v>
+        <v>69</v>
       </c>
       <c r="C33" t="s">
         <v>8</v>
@@ -1117,7 +1357,7 @@
         <v>42</v>
       </c>
       <c r="B34" t="s">
-        <v>5</v>
+        <v>70</v>
       </c>
       <c r="C34" t="s">
         <v>9</v>
@@ -1134,7 +1374,7 @@
         <v>42</v>
       </c>
       <c r="B35" t="s">
-        <v>30</v>
+        <v>71</v>
       </c>
       <c r="C35" t="s">
         <v>10</v>
@@ -1151,7 +1391,7 @@
         <v>42</v>
       </c>
       <c r="B36" t="s">
-        <v>31</v>
+        <v>72</v>
       </c>
       <c r="C36" t="s">
         <v>11</v>
@@ -1168,7 +1408,7 @@
         <v>42</v>
       </c>
       <c r="B37" t="s">
-        <v>32</v>
+        <v>73</v>
       </c>
       <c r="C37" t="s">
         <v>12</v>
@@ -1185,7 +1425,7 @@
         <v>42</v>
       </c>
       <c r="B38" t="s">
-        <v>33</v>
+        <v>74</v>
       </c>
       <c r="C38" t="s">
         <v>13</v>
@@ -1202,7 +1442,7 @@
         <v>42</v>
       </c>
       <c r="B39" t="s">
-        <v>34</v>
+        <v>75</v>
       </c>
       <c r="C39" t="s">
         <v>14</v>
@@ -1219,7 +1459,7 @@
         <v>42</v>
       </c>
       <c r="B40" t="s">
-        <v>35</v>
+        <v>76</v>
       </c>
       <c r="C40" t="s">
         <v>15</v>
@@ -1236,7 +1476,7 @@
         <v>1</v>
       </c>
       <c r="B41" t="s">
-        <v>2</v>
+        <v>77</v>
       </c>
       <c r="C41" t="s">
         <v>6</v>
@@ -1253,7 +1493,7 @@
         <v>1</v>
       </c>
       <c r="B42" t="s">
-        <v>3</v>
+        <v>78</v>
       </c>
       <c r="C42" t="s">
         <v>7</v>
@@ -1270,7 +1510,7 @@
         <v>1</v>
       </c>
       <c r="B43" t="s">
-        <v>4</v>
+        <v>79</v>
       </c>
       <c r="C43" t="s">
         <v>8</v>
@@ -1287,7 +1527,7 @@
         <v>1</v>
       </c>
       <c r="B44" t="s">
-        <v>5</v>
+        <v>80</v>
       </c>
       <c r="C44" t="s">
         <v>9</v>
@@ -1304,7 +1544,7 @@
         <v>1</v>
       </c>
       <c r="B45" t="s">
-        <v>30</v>
+        <v>81</v>
       </c>
       <c r="C45" t="s">
         <v>10</v>
@@ -1321,7 +1561,7 @@
         <v>1</v>
       </c>
       <c r="B46" t="s">
-        <v>31</v>
+        <v>82</v>
       </c>
       <c r="C46" t="s">
         <v>11</v>
@@ -1338,7 +1578,7 @@
         <v>1</v>
       </c>
       <c r="B47" t="s">
-        <v>32</v>
+        <v>83</v>
       </c>
       <c r="C47" t="s">
         <v>12</v>
@@ -1355,7 +1595,7 @@
         <v>1</v>
       </c>
       <c r="B48" t="s">
-        <v>33</v>
+        <v>84</v>
       </c>
       <c r="C48" t="s">
         <v>13</v>
@@ -1372,7 +1612,7 @@
         <v>1</v>
       </c>
       <c r="B49" t="s">
-        <v>34</v>
+        <v>85</v>
       </c>
       <c r="C49" t="s">
         <v>14</v>
@@ -1389,7 +1629,7 @@
         <v>1</v>
       </c>
       <c r="B50" t="s">
-        <v>35</v>
+        <v>86</v>
       </c>
       <c r="C50" t="s">
         <v>15</v>
@@ -1406,7 +1646,7 @@
         <v>43</v>
       </c>
       <c r="B51" t="s">
-        <v>2</v>
+        <v>87</v>
       </c>
       <c r="C51" t="s">
         <v>6</v>
@@ -1423,7 +1663,7 @@
         <v>43</v>
       </c>
       <c r="B52" t="s">
-        <v>3</v>
+        <v>88</v>
       </c>
       <c r="C52" t="s">
         <v>7</v>
@@ -1440,7 +1680,7 @@
         <v>43</v>
       </c>
       <c r="B53" t="s">
-        <v>4</v>
+        <v>89</v>
       </c>
       <c r="C53" t="s">
         <v>8</v>
@@ -1457,7 +1697,7 @@
         <v>43</v>
       </c>
       <c r="B54" t="s">
-        <v>5</v>
+        <v>90</v>
       </c>
       <c r="C54" t="s">
         <v>9</v>
@@ -1474,7 +1714,7 @@
         <v>43</v>
       </c>
       <c r="B55" t="s">
-        <v>30</v>
+        <v>91</v>
       </c>
       <c r="C55" t="s">
         <v>10</v>
@@ -1491,7 +1731,7 @@
         <v>43</v>
       </c>
       <c r="B56" t="s">
-        <v>31</v>
+        <v>92</v>
       </c>
       <c r="C56" t="s">
         <v>11</v>
@@ -1508,7 +1748,7 @@
         <v>43</v>
       </c>
       <c r="B57" t="s">
-        <v>32</v>
+        <v>93</v>
       </c>
       <c r="C57" t="s">
         <v>12</v>
@@ -1525,7 +1765,7 @@
         <v>43</v>
       </c>
       <c r="B58" t="s">
-        <v>33</v>
+        <v>94</v>
       </c>
       <c r="C58" t="s">
         <v>13</v>
@@ -1542,7 +1782,7 @@
         <v>43</v>
       </c>
       <c r="B59" t="s">
-        <v>34</v>
+        <v>95</v>
       </c>
       <c r="C59" t="s">
         <v>14</v>
@@ -1559,7 +1799,7 @@
         <v>43</v>
       </c>
       <c r="B60" t="s">
-        <v>35</v>
+        <v>96</v>
       </c>
       <c r="C60" t="s">
         <v>15</v>
@@ -1576,7 +1816,7 @@
         <v>44</v>
       </c>
       <c r="B61" t="s">
-        <v>2</v>
+        <v>97</v>
       </c>
       <c r="C61" t="s">
         <v>6</v>
@@ -1593,7 +1833,7 @@
         <v>44</v>
       </c>
       <c r="B62" t="s">
-        <v>3</v>
+        <v>98</v>
       </c>
       <c r="C62" t="s">
         <v>7</v>
@@ -1610,7 +1850,7 @@
         <v>44</v>
       </c>
       <c r="B63" t="s">
-        <v>4</v>
+        <v>99</v>
       </c>
       <c r="C63" t="s">
         <v>8</v>
@@ -1627,7 +1867,7 @@
         <v>44</v>
       </c>
       <c r="B64" t="s">
-        <v>5</v>
+        <v>100</v>
       </c>
       <c r="C64" t="s">
         <v>9</v>
@@ -1644,7 +1884,7 @@
         <v>44</v>
       </c>
       <c r="B65" t="s">
-        <v>30</v>
+        <v>101</v>
       </c>
       <c r="C65" t="s">
         <v>10</v>
@@ -1661,7 +1901,7 @@
         <v>44</v>
       </c>
       <c r="B66" t="s">
-        <v>31</v>
+        <v>102</v>
       </c>
       <c r="C66" t="s">
         <v>11</v>
@@ -1678,7 +1918,7 @@
         <v>44</v>
       </c>
       <c r="B67" t="s">
-        <v>32</v>
+        <v>103</v>
       </c>
       <c r="C67" t="s">
         <v>12</v>
@@ -1695,7 +1935,7 @@
         <v>44</v>
       </c>
       <c r="B68" t="s">
-        <v>33</v>
+        <v>104</v>
       </c>
       <c r="C68" t="s">
         <v>13</v>
@@ -1712,7 +1952,7 @@
         <v>44</v>
       </c>
       <c r="B69" t="s">
-        <v>34</v>
+        <v>105</v>
       </c>
       <c r="C69" t="s">
         <v>14</v>
@@ -1729,7 +1969,7 @@
         <v>44</v>
       </c>
       <c r="B70" t="s">
-        <v>35</v>
+        <v>106</v>
       </c>
       <c r="C70" t="s">
         <v>15</v>
@@ -1746,7 +1986,7 @@
         <v>46</v>
       </c>
       <c r="B71" t="s">
-        <v>2</v>
+        <v>107</v>
       </c>
       <c r="C71" t="s">
         <v>6</v>
@@ -1763,7 +2003,7 @@
         <v>46</v>
       </c>
       <c r="B72" t="s">
-        <v>3</v>
+        <v>108</v>
       </c>
       <c r="C72" t="s">
         <v>7</v>
@@ -1780,7 +2020,7 @@
         <v>46</v>
       </c>
       <c r="B73" t="s">
-        <v>4</v>
+        <v>109</v>
       </c>
       <c r="C73" t="s">
         <v>8</v>
@@ -1797,7 +2037,7 @@
         <v>46</v>
       </c>
       <c r="B74" t="s">
-        <v>5</v>
+        <v>110</v>
       </c>
       <c r="C74" t="s">
         <v>9</v>
@@ -1814,7 +2054,7 @@
         <v>46</v>
       </c>
       <c r="B75" t="s">
-        <v>30</v>
+        <v>111</v>
       </c>
       <c r="C75" t="s">
         <v>10</v>
@@ -1831,7 +2071,7 @@
         <v>46</v>
       </c>
       <c r="B76" t="s">
-        <v>31</v>
+        <v>112</v>
       </c>
       <c r="C76" t="s">
         <v>11</v>
@@ -1848,7 +2088,7 @@
         <v>46</v>
       </c>
       <c r="B77" t="s">
-        <v>32</v>
+        <v>113</v>
       </c>
       <c r="C77" t="s">
         <v>12</v>
@@ -1865,7 +2105,7 @@
         <v>46</v>
       </c>
       <c r="B78" t="s">
-        <v>33</v>
+        <v>114</v>
       </c>
       <c r="C78" t="s">
         <v>13</v>
@@ -1882,7 +2122,7 @@
         <v>46</v>
       </c>
       <c r="B79" t="s">
-        <v>34</v>
+        <v>115</v>
       </c>
       <c r="C79" t="s">
         <v>14</v>
@@ -1899,7 +2139,7 @@
         <v>46</v>
       </c>
       <c r="B80" t="s">
-        <v>35</v>
+        <v>116</v>
       </c>
       <c r="C80" t="s">
         <v>15</v>
@@ -1916,7 +2156,7 @@
         <v>45</v>
       </c>
       <c r="B81" t="s">
-        <v>2</v>
+        <v>117</v>
       </c>
       <c r="C81" t="s">
         <v>6</v>
@@ -1933,7 +2173,7 @@
         <v>45</v>
       </c>
       <c r="B82" t="s">
-        <v>3</v>
+        <v>118</v>
       </c>
       <c r="C82" t="s">
         <v>7</v>
@@ -1950,7 +2190,7 @@
         <v>45</v>
       </c>
       <c r="B83" t="s">
-        <v>4</v>
+        <v>119</v>
       </c>
       <c r="C83" t="s">
         <v>8</v>
@@ -1967,7 +2207,7 @@
         <v>45</v>
       </c>
       <c r="B84" t="s">
-        <v>5</v>
+        <v>120</v>
       </c>
       <c r="C84" t="s">
         <v>9</v>
@@ -1984,7 +2224,7 @@
         <v>45</v>
       </c>
       <c r="B85" t="s">
-        <v>30</v>
+        <v>121</v>
       </c>
       <c r="C85" t="s">
         <v>10</v>
@@ -2001,7 +2241,7 @@
         <v>45</v>
       </c>
       <c r="B86" t="s">
-        <v>31</v>
+        <v>122</v>
       </c>
       <c r="C86" t="s">
         <v>11</v>
@@ -2018,7 +2258,7 @@
         <v>45</v>
       </c>
       <c r="B87" t="s">
-        <v>32</v>
+        <v>123</v>
       </c>
       <c r="C87" t="s">
         <v>12</v>
@@ -2035,7 +2275,7 @@
         <v>45</v>
       </c>
       <c r="B88" t="s">
-        <v>33</v>
+        <v>124</v>
       </c>
       <c r="C88" t="s">
         <v>13</v>
@@ -2052,7 +2292,7 @@
         <v>45</v>
       </c>
       <c r="B89" t="s">
-        <v>34</v>
+        <v>125</v>
       </c>
       <c r="C89" t="s">
         <v>14</v>
@@ -2069,7 +2309,7 @@
         <v>45</v>
       </c>
       <c r="B90" t="s">
-        <v>35</v>
+        <v>126</v>
       </c>
       <c r="C90" t="s">
         <v>15</v>

--- a/app/src/main/assets/planety_quizz.xlsx
+++ b/app/src/main/assets/planety_quizz.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/24b8b251d8fae0f4/PEVS/__BAKALARKA/app/src/main/assets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="66" documentId="8_{C90CBB8E-5315-4C0C-B1B1-8548AA6FBBDF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{12827E7D-0BE2-41E9-B279-5F5556CB84C1}"/>
+  <xr:revisionPtr revIDLastSave="100" documentId="8_{C90CBB8E-5315-4C0C-B1B1-8548AA6FBBDF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4EB76317-C1D5-4B12-A1BD-CE2D843A2219}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{59B42603-5E37-44C8-B453-97DD41C0E15D}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="450" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="440" uniqueCount="149">
   <si>
     <t>SLNKO</t>
   </si>
@@ -44,18 +44,6 @@
     <t>MARS</t>
   </si>
   <si>
-    <t>Otazka slnko 1</t>
-  </si>
-  <si>
-    <t>Otazka slnko 2</t>
-  </si>
-  <si>
-    <t>Otazka slnko 3</t>
-  </si>
-  <si>
-    <t>Otazka slnko 4</t>
-  </si>
-  <si>
     <t>Odpoved 1</t>
   </si>
   <si>
@@ -128,24 +116,6 @@
     <t>Spravna 8</t>
   </si>
   <si>
-    <t>Otazka slnko 5</t>
-  </si>
-  <si>
-    <t>Otazka slnko 6</t>
-  </si>
-  <si>
-    <t>Otazka slnko 7</t>
-  </si>
-  <si>
-    <t>Otazka slnko 8</t>
-  </si>
-  <si>
-    <t>Otazka slnko 9</t>
-  </si>
-  <si>
-    <t>Otazka slnko 10</t>
-  </si>
-  <si>
     <t>Spravna 9</t>
   </si>
   <si>
@@ -417,6 +387,102 @@
   </si>
   <si>
     <t>Otazka neptun 10</t>
+  </si>
+  <si>
+    <t>Hviezda</t>
+  </si>
+  <si>
+    <t>Planéta</t>
+  </si>
+  <si>
+    <t>Čo je Slnko?</t>
+  </si>
+  <si>
+    <t>U.F.O.</t>
+  </si>
+  <si>
+    <t>Kde sa nachádza Slnko v slnečnej sústave?</t>
+  </si>
+  <si>
+    <t>V strede</t>
+  </si>
+  <si>
+    <t>Niekde na konci</t>
+  </si>
+  <si>
+    <t>Dolu</t>
+  </si>
+  <si>
+    <t>Vďaka ktorým planétam vznikne zatmenie?</t>
+  </si>
+  <si>
+    <t>Mesiac, Slnko a Zem v priamke</t>
+  </si>
+  <si>
+    <t>Veľký kameň ktorý sa objaví</t>
+  </si>
+  <si>
+    <t>Slnko zhasne</t>
+  </si>
+  <si>
+    <t>Čo spôsobujé slnečné žiarenie?</t>
+  </si>
+  <si>
+    <t>Svietia vďaka nemu ostatné planéty</t>
+  </si>
+  <si>
+    <t>Ostatné planéty horia</t>
+  </si>
+  <si>
+    <t>Oslepuje mimozenské lode</t>
+  </si>
+  <si>
+    <t>Ako rýchlos a dostane slnečné svetlo na zem?</t>
+  </si>
+  <si>
+    <t>8 minút a 20 sekúnd</t>
+  </si>
+  <si>
+    <t>20 sekúnd</t>
+  </si>
+  <si>
+    <t>8 minút</t>
+  </si>
+  <si>
+    <t>Je energia slnka nevyhnutná pre život?</t>
+  </si>
+  <si>
+    <t>Nie</t>
+  </si>
+  <si>
+    <t>Áno</t>
+  </si>
+  <si>
+    <t>Iba pre mimozenštanov</t>
+  </si>
+  <si>
+    <t>Aké ťažké je Slnko?</t>
+  </si>
+  <si>
+    <t>Tvorí 99,87% slnečnej sústavy</t>
+  </si>
+  <si>
+    <t>Čo robí gravitačné pole Slnka?</t>
+  </si>
+  <si>
+    <t>Udržuje všetky planéty na obežných dráhach</t>
+  </si>
+  <si>
+    <t>Také ťažké ako tvoj otec</t>
+  </si>
+  <si>
+    <t>O niečo ťažšíe ako slon</t>
+  </si>
+  <si>
+    <t>Udržuje vtáky vo vzduchu</t>
+  </si>
+  <si>
+    <t>Vďaka nemu lietajú vesmírne lode</t>
   </si>
 </sst>
 </file>
@@ -780,10 +846,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89EE18A4-0E79-4F3E-B37F-340BDF55F156}">
-  <dimension ref="A1:E90"/>
+  <dimension ref="A1:E88"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
-      <selection activeCell="B93" sqref="B93"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -796,16 +862,16 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>2</v>
+        <v>119</v>
       </c>
       <c r="C1" t="s">
-        <v>6</v>
+        <v>118</v>
       </c>
       <c r="D1" t="s">
-        <v>14</v>
+        <v>120</v>
       </c>
       <c r="E1" t="s">
-        <v>22</v>
+        <v>117</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
@@ -813,16 +879,16 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>3</v>
+        <v>121</v>
       </c>
       <c r="C2" t="s">
-        <v>7</v>
+        <v>123</v>
       </c>
       <c r="D2" t="s">
-        <v>15</v>
+        <v>124</v>
       </c>
       <c r="E2" t="s">
-        <v>23</v>
+        <v>122</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
@@ -830,16 +896,16 @@
         <v>0</v>
       </c>
       <c r="B3" t="s">
-        <v>4</v>
+        <v>125</v>
       </c>
       <c r="C3" t="s">
-        <v>8</v>
+        <v>127</v>
       </c>
       <c r="D3" t="s">
-        <v>16</v>
+        <v>128</v>
       </c>
       <c r="E3" t="s">
-        <v>24</v>
+        <v>126</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
@@ -847,16 +913,16 @@
         <v>0</v>
       </c>
       <c r="B4" t="s">
-        <v>5</v>
+        <v>129</v>
       </c>
       <c r="C4" t="s">
-        <v>9</v>
+        <v>131</v>
       </c>
       <c r="D4" t="s">
-        <v>17</v>
+        <v>132</v>
       </c>
       <c r="E4" t="s">
-        <v>25</v>
+        <v>130</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
@@ -864,16 +930,16 @@
         <v>0</v>
       </c>
       <c r="B5" t="s">
-        <v>30</v>
+        <v>133</v>
       </c>
       <c r="C5" t="s">
-        <v>10</v>
+        <v>136</v>
       </c>
       <c r="D5" t="s">
-        <v>18</v>
+        <v>135</v>
       </c>
       <c r="E5" t="s">
-        <v>26</v>
+        <v>134</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
@@ -881,16 +947,16 @@
         <v>0</v>
       </c>
       <c r="B6" t="s">
-        <v>31</v>
+        <v>137</v>
       </c>
       <c r="C6" t="s">
-        <v>11</v>
+        <v>140</v>
       </c>
       <c r="D6" t="s">
-        <v>19</v>
+        <v>138</v>
       </c>
       <c r="E6" t="s">
-        <v>27</v>
+        <v>139</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
@@ -898,16 +964,16 @@
         <v>0</v>
       </c>
       <c r="B7" t="s">
-        <v>32</v>
+        <v>141</v>
       </c>
       <c r="C7" t="s">
-        <v>12</v>
+        <v>145</v>
       </c>
       <c r="D7" t="s">
-        <v>20</v>
+        <v>146</v>
       </c>
       <c r="E7" t="s">
-        <v>28</v>
+        <v>142</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
@@ -915,560 +981,560 @@
         <v>0</v>
       </c>
       <c r="B8" t="s">
-        <v>33</v>
+        <v>143</v>
       </c>
       <c r="C8" t="s">
-        <v>13</v>
+        <v>147</v>
       </c>
       <c r="D8" t="s">
-        <v>21</v>
+        <v>148</v>
       </c>
       <c r="E8" t="s">
-        <v>29</v>
+        <v>144</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="B9" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="C9" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="D9" t="s">
-        <v>38</v>
+        <v>10</v>
       </c>
       <c r="E9" t="s">
-        <v>36</v>
+        <v>18</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="B10" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="C10" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="D10" t="s">
-        <v>39</v>
+        <v>11</v>
       </c>
       <c r="E10" t="s">
-        <v>37</v>
+        <v>19</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="B11" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="C11" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D11" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E11" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
+        <v>30</v>
+      </c>
+      <c r="B12" t="s">
         <v>40</v>
       </c>
-      <c r="B12" t="s">
-        <v>48</v>
-      </c>
       <c r="C12" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D12" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E12" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="B13" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="C13" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D13" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E13" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="B14" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="C14" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D14" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E14" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="B15" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="C15" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D15" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E15" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="B16" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="C16" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D16" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E16" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="B17" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="C17" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D17" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="E17" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="B18" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="C18" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D18" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="E18" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="B19" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="C19" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="D19" t="s">
-        <v>38</v>
+        <v>10</v>
       </c>
       <c r="E19" t="s">
-        <v>36</v>
+        <v>18</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="B20" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="C20" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="D20" t="s">
-        <v>39</v>
+        <v>11</v>
       </c>
       <c r="E20" t="s">
-        <v>37</v>
+        <v>19</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="B21" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="C21" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D21" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E21" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="B22" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="C22" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D22" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E22" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="B23" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="C23" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D23" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E23" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="B24" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="C24" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D24" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E24" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="B25" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="C25" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D25" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E25" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="B26" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="C26" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D26" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E26" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="B27" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="C27" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D27" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="E27" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="B28" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="C28" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D28" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="E28" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="B29" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="C29" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="D29" t="s">
-        <v>38</v>
+        <v>10</v>
       </c>
       <c r="E29" t="s">
-        <v>36</v>
+        <v>18</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="B30" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="C30" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="D30" t="s">
-        <v>39</v>
+        <v>11</v>
       </c>
       <c r="E30" t="s">
-        <v>37</v>
+        <v>19</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="B31" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="C31" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D31" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E31" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="B32" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="C32" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D32" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E32" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="C33" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D33" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E33" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="C34" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D34" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E34" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="B35" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="C35" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D35" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E35" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="B36" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="C36" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D36" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E36" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="B37" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="C37" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D37" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="E37" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="B38" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="C38" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D38" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="E38" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>42</v>
+        <v>1</v>
       </c>
       <c r="B39" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="C39" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="D39" t="s">
-        <v>38</v>
+        <v>10</v>
       </c>
       <c r="E39" t="s">
-        <v>36</v>
+        <v>18</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>42</v>
+        <v>1</v>
       </c>
       <c r="B40" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="C40" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="D40" t="s">
-        <v>39</v>
+        <v>11</v>
       </c>
       <c r="E40" t="s">
-        <v>37</v>
+        <v>19</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.3">
@@ -1476,16 +1542,16 @@
         <v>1</v>
       </c>
       <c r="B41" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="C41" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D41" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E41" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.3">
@@ -1493,16 +1559,16 @@
         <v>1</v>
       </c>
       <c r="B42" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="C42" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D42" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E42" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.3">
@@ -1510,16 +1576,16 @@
         <v>1</v>
       </c>
       <c r="B43" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="C43" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D43" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E43" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.3">
@@ -1527,16 +1593,16 @@
         <v>1</v>
       </c>
       <c r="B44" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="C44" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D44" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E44" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.3">
@@ -1544,16 +1610,16 @@
         <v>1</v>
       </c>
       <c r="B45" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="C45" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D45" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E45" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.3">
@@ -1561,16 +1627,16 @@
         <v>1</v>
       </c>
       <c r="B46" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="C46" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D46" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E46" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.3">
@@ -1578,16 +1644,16 @@
         <v>1</v>
       </c>
       <c r="B47" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="C47" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D47" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="E47" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.3">
@@ -1595,730 +1661,696 @@
         <v>1</v>
       </c>
       <c r="B48" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="C48" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D48" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="E48" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>1</v>
+        <v>33</v>
       </c>
       <c r="B49" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="C49" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="D49" t="s">
-        <v>38</v>
+        <v>10</v>
       </c>
       <c r="E49" t="s">
-        <v>36</v>
+        <v>18</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>1</v>
+        <v>33</v>
       </c>
       <c r="B50" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="C50" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="D50" t="s">
-        <v>39</v>
+        <v>11</v>
       </c>
       <c r="E50" t="s">
-        <v>37</v>
+        <v>19</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="B51" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="C51" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D51" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E51" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="B52" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="C52" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D52" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E52" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="B53" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="C53" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D53" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E53" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="B54" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="C54" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D54" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E54" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="B55" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="C55" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D55" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E55" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="B56" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="C56" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D56" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E56" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="B57" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="C57" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D57" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="E57" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="B58" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="C58" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D58" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="E58" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="B59" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="C59" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="D59" t="s">
-        <v>38</v>
+        <v>10</v>
       </c>
       <c r="E59" t="s">
-        <v>36</v>
+        <v>18</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="B60" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="C60" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="D60" t="s">
-        <v>39</v>
+        <v>11</v>
       </c>
       <c r="E60" t="s">
-        <v>37</v>
+        <v>19</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="B61" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="C61" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D61" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E61" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="B62" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="C62" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D62" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E62" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="B63" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="C63" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D63" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E63" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="B64" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="C64" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D64" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E64" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="B65" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="C65" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D65" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E65" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="B66" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="C66" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D66" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E66" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="B67" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="C67" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D67" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="E67" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="B68" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="C68" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D68" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="E68" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="B69" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="C69" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="D69" t="s">
-        <v>38</v>
+        <v>10</v>
       </c>
       <c r="E69" t="s">
-        <v>36</v>
+        <v>18</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="B70" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="C70" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="D70" t="s">
-        <v>39</v>
+        <v>11</v>
       </c>
       <c r="E70" t="s">
-        <v>37</v>
+        <v>19</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="B71" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="C71" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D71" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E71" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="B72" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="C72" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D72" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E72" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="B73" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
       <c r="C73" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D73" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E73" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="B74" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="C74" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D74" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E74" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="B75" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="C75" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D75" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E75" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="B76" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="C76" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D76" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E76" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="B77" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="C77" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D77" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="E77" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="B78" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="C78" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D78" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="E78" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="B79" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="C79" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="D79" t="s">
-        <v>38</v>
+        <v>10</v>
       </c>
       <c r="E79" t="s">
-        <v>36</v>
+        <v>18</v>
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="B80" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="C80" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="D80" t="s">
-        <v>39</v>
+        <v>11</v>
       </c>
       <c r="E80" t="s">
-        <v>37</v>
+        <v>19</v>
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="B81" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="C81" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D81" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E81" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="B82" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="C82" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D82" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E82" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="B83" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
       <c r="C83" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D83" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E83" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="B84" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="C84" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D84" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E84" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="B85" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="C85" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D85" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E85" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="B86" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="C86" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D86" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E86" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="B87" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c r="C87" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D87" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="E87" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="B88" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="C88" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D88" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="E88" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A89" t="s">
-        <v>45</v>
-      </c>
-      <c r="B89" t="s">
-        <v>125</v>
-      </c>
-      <c r="C89" t="s">
-        <v>14</v>
-      </c>
-      <c r="D89" t="s">
-        <v>38</v>
-      </c>
-      <c r="E89" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A90" t="s">
-        <v>45</v>
-      </c>
-      <c r="B90" t="s">
-        <v>126</v>
-      </c>
-      <c r="C90" t="s">
-        <v>15</v>
-      </c>
-      <c r="D90" t="s">
-        <v>39</v>
-      </c>
-      <c r="E90" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>

--- a/app/src/main/assets/planety_quizz.xlsx
+++ b/app/src/main/assets/planety_quizz.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/24b8b251d8fae0f4/PEVS/__BAKALARKA/app/src/main/assets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="100" documentId="8_{C90CBB8E-5315-4C0C-B1B1-8548AA6FBBDF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4EB76317-C1D5-4B12-A1BD-CE2D843A2219}"/>
+  <xr:revisionPtr revIDLastSave="145" documentId="8_{C90CBB8E-5315-4C0C-B1B1-8548AA6FBBDF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{36477707-8F7D-4918-859C-8C47AF6CD906}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{59B42603-5E37-44C8-B453-97DD41C0E15D}"/>
+    <workbookView xWindow="4776" yWindow="6408" windowWidth="17280" windowHeight="8880" xr2:uid="{59B42603-5E37-44C8-B453-97DD41C0E15D}"/>
   </bookViews>
   <sheets>
     <sheet name="Hárok1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="440" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="430" uniqueCount="165">
   <si>
     <t>SLNKO</t>
   </si>
@@ -149,36 +149,6 @@
     <t>URAN</t>
   </si>
   <si>
-    <t>Otazka Merkur 1</t>
-  </si>
-  <si>
-    <t>Otazka Merkur 2</t>
-  </si>
-  <si>
-    <t>Otazka Merkur 3</t>
-  </si>
-  <si>
-    <t>Otazka Merkur 4</t>
-  </si>
-  <si>
-    <t>Otazka Merkur 5</t>
-  </si>
-  <si>
-    <t>Otazka Merkur 6</t>
-  </si>
-  <si>
-    <t>Otazka Merkur 7</t>
-  </si>
-  <si>
-    <t>Otazka Merkur 8</t>
-  </si>
-  <si>
-    <t>Otazka Merkur 9</t>
-  </si>
-  <si>
-    <t>Otazka Merkur 10</t>
-  </si>
-  <si>
     <t>Otazka Venusa 1</t>
   </si>
   <si>
@@ -461,28 +431,106 @@
     <t>Iba pre mimozenštanov</t>
   </si>
   <si>
-    <t>Aké ťažké je Slnko?</t>
-  </si>
-  <si>
-    <t>Tvorí 99,87% slnečnej sústavy</t>
-  </si>
-  <si>
-    <t>Čo robí gravitačné pole Slnka?</t>
-  </si>
-  <si>
-    <t>Udržuje všetky planéty na obežných dráhach</t>
-  </si>
-  <si>
-    <t>Také ťažké ako tvoj otec</t>
-  </si>
-  <si>
-    <t>O niečo ťažšíe ako slon</t>
-  </si>
-  <si>
-    <t>Udržuje vtáky vo vzduchu</t>
-  </si>
-  <si>
-    <t>Vďaka nemu lietajú vesmírne lode</t>
+    <t>Aká je najvrchnejšia časť Slnka?</t>
+  </si>
+  <si>
+    <t>Koróna</t>
+  </si>
+  <si>
+    <t>Fotosféra</t>
+  </si>
+  <si>
+    <t>Niečo žlté</t>
+  </si>
+  <si>
+    <t>Čo sú slnečné škvrny?</t>
+  </si>
+  <si>
+    <t>Chladnejšie časti Slnka</t>
+  </si>
+  <si>
+    <t>Slnko sa neumylo</t>
+  </si>
+  <si>
+    <t>Niekto tam nechal plachtu</t>
+  </si>
+  <si>
+    <t>Kde sa nachádza Merkúr?</t>
+  </si>
+  <si>
+    <t>Najbližšie ku Slnku</t>
+  </si>
+  <si>
+    <t>Najďalej pri Slnku</t>
+  </si>
+  <si>
+    <t>V n124qw galaxií</t>
+  </si>
+  <si>
+    <t>Aká je veľkosť Merkúru</t>
+  </si>
+  <si>
+    <t>Patrí medzi druhú najmenšiu</t>
+  </si>
+  <si>
+    <t>Je najväčšia</t>
+  </si>
+  <si>
+    <t>Skoro rovnaká ako Zem</t>
+  </si>
+  <si>
+    <t>Má nejakú atmosféru?</t>
+  </si>
+  <si>
+    <t>Takmer žiadnu</t>
+  </si>
+  <si>
+    <t>Čo je armosféra?</t>
+  </si>
+  <si>
+    <t>Aké sú najväčšie teploty?</t>
+  </si>
+  <si>
+    <t>430 C</t>
+  </si>
+  <si>
+    <t>1500 C</t>
+  </si>
+  <si>
+    <t>589 C</t>
+  </si>
+  <si>
+    <t>Aká je najnižšia teplota?</t>
+  </si>
+  <si>
+    <t>Čím je pokrytý Merkúr?</t>
+  </si>
+  <si>
+    <t>Koľko mesiacov má Merkúr?</t>
+  </si>
+  <si>
+    <t>Koľko trvá dĺžka roka  na Merkúre?</t>
+  </si>
+  <si>
+    <t>Prečo nemá takmer žiadnu atmosféru?</t>
+  </si>
+  <si>
+    <t>Hmotnosť planéty je príliš malá</t>
+  </si>
+  <si>
+    <t>Atmosféra nemá rada Merkúr</t>
+  </si>
+  <si>
+    <t>Čo je to atmosféra?</t>
+  </si>
+  <si>
+    <t>Koľko ročných období má Merkúr?</t>
+  </si>
+  <si>
+    <t>Žiadne</t>
+  </si>
+  <si>
+    <t>Jar a Leto</t>
   </si>
 </sst>
 </file>
@@ -848,8 +896,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89EE18A4-0E79-4F3E-B37F-340BDF55F156}">
   <dimension ref="A1:E88"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -862,16 +910,16 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>119</v>
+        <v>109</v>
       </c>
       <c r="C1" t="s">
-        <v>118</v>
+        <v>108</v>
       </c>
       <c r="D1" t="s">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="E1" t="s">
-        <v>117</v>
+        <v>107</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
@@ -879,16 +927,16 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>121</v>
+        <v>111</v>
       </c>
       <c r="C2" t="s">
-        <v>123</v>
+        <v>113</v>
       </c>
       <c r="D2" t="s">
-        <v>124</v>
+        <v>114</v>
       </c>
       <c r="E2" t="s">
-        <v>122</v>
+        <v>112</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
@@ -896,16 +944,16 @@
         <v>0</v>
       </c>
       <c r="B3" t="s">
-        <v>125</v>
+        <v>115</v>
       </c>
       <c r="C3" t="s">
-        <v>127</v>
+        <v>117</v>
       </c>
       <c r="D3" t="s">
-        <v>128</v>
+        <v>118</v>
       </c>
       <c r="E3" t="s">
-        <v>126</v>
+        <v>116</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
@@ -913,16 +961,16 @@
         <v>0</v>
       </c>
       <c r="B4" t="s">
-        <v>129</v>
+        <v>119</v>
       </c>
       <c r="C4" t="s">
-        <v>131</v>
+        <v>121</v>
       </c>
       <c r="D4" t="s">
-        <v>132</v>
+        <v>122</v>
       </c>
       <c r="E4" t="s">
-        <v>130</v>
+        <v>120</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
@@ -930,16 +978,16 @@
         <v>0</v>
       </c>
       <c r="B5" t="s">
-        <v>133</v>
+        <v>123</v>
       </c>
       <c r="C5" t="s">
-        <v>136</v>
+        <v>126</v>
       </c>
       <c r="D5" t="s">
-        <v>135</v>
+        <v>125</v>
       </c>
       <c r="E5" t="s">
-        <v>134</v>
+        <v>124</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
@@ -947,16 +995,16 @@
         <v>0</v>
       </c>
       <c r="B6" t="s">
-        <v>137</v>
+        <v>127</v>
       </c>
       <c r="C6" t="s">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="D6" t="s">
-        <v>138</v>
+        <v>128</v>
       </c>
       <c r="E6" t="s">
-        <v>139</v>
+        <v>129</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
@@ -964,16 +1012,16 @@
         <v>0</v>
       </c>
       <c r="B7" t="s">
-        <v>141</v>
+        <v>131</v>
       </c>
       <c r="C7" t="s">
-        <v>145</v>
+        <v>133</v>
       </c>
       <c r="D7" t="s">
-        <v>146</v>
+        <v>134</v>
       </c>
       <c r="E7" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
@@ -981,16 +1029,16 @@
         <v>0</v>
       </c>
       <c r="B8" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="C8" t="s">
-        <v>147</v>
+        <v>137</v>
       </c>
       <c r="D8" t="s">
-        <v>148</v>
+        <v>138</v>
       </c>
       <c r="E8" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
@@ -998,16 +1046,16 @@
         <v>30</v>
       </c>
       <c r="B9" t="s">
-        <v>37</v>
+        <v>139</v>
       </c>
       <c r="C9" t="s">
-        <v>2</v>
+        <v>141</v>
       </c>
       <c r="D9" t="s">
-        <v>10</v>
+        <v>142</v>
       </c>
       <c r="E9" t="s">
-        <v>18</v>
+        <v>140</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
@@ -1015,16 +1063,16 @@
         <v>30</v>
       </c>
       <c r="B10" t="s">
-        <v>38</v>
+        <v>143</v>
       </c>
       <c r="C10" t="s">
-        <v>3</v>
+        <v>145</v>
       </c>
       <c r="D10" t="s">
-        <v>11</v>
+        <v>146</v>
       </c>
       <c r="E10" t="s">
-        <v>19</v>
+        <v>144</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
@@ -1032,16 +1080,16 @@
         <v>30</v>
       </c>
       <c r="B11" t="s">
-        <v>39</v>
+        <v>147</v>
       </c>
       <c r="C11" t="s">
-        <v>4</v>
+        <v>129</v>
       </c>
       <c r="D11" t="s">
-        <v>12</v>
+        <v>149</v>
       </c>
       <c r="E11" t="s">
-        <v>20</v>
+        <v>148</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
@@ -1049,16 +1097,16 @@
         <v>30</v>
       </c>
       <c r="B12" t="s">
-        <v>40</v>
+        <v>150</v>
       </c>
       <c r="C12" t="s">
-        <v>5</v>
+        <v>153</v>
       </c>
       <c r="D12" t="s">
-        <v>13</v>
+        <v>152</v>
       </c>
       <c r="E12" t="s">
-        <v>21</v>
+        <v>151</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
@@ -1066,16 +1114,16 @@
         <v>30</v>
       </c>
       <c r="B13" t="s">
-        <v>41</v>
-      </c>
-      <c r="C13" t="s">
-        <v>6</v>
-      </c>
-      <c r="D13" t="s">
-        <v>14</v>
-      </c>
-      <c r="E13" t="s">
-        <v>22</v>
+        <v>154</v>
+      </c>
+      <c r="C13">
+        <v>55</v>
+      </c>
+      <c r="D13">
+        <v>30</v>
+      </c>
+      <c r="E13">
+        <v>-180</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
@@ -1083,7 +1131,7 @@
         <v>30</v>
       </c>
       <c r="B14" t="s">
-        <v>42</v>
+        <v>155</v>
       </c>
       <c r="C14" t="s">
         <v>7</v>
@@ -1100,16 +1148,16 @@
         <v>30</v>
       </c>
       <c r="B15" t="s">
-        <v>43</v>
-      </c>
-      <c r="C15" t="s">
-        <v>8</v>
-      </c>
-      <c r="D15" t="s">
-        <v>16</v>
-      </c>
-      <c r="E15" t="s">
-        <v>24</v>
+        <v>156</v>
+      </c>
+      <c r="C15">
+        <v>1</v>
+      </c>
+      <c r="D15">
+        <v>4</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
@@ -1117,16 +1165,16 @@
         <v>30</v>
       </c>
       <c r="B16" t="s">
-        <v>44</v>
-      </c>
-      <c r="C16" t="s">
-        <v>9</v>
-      </c>
-      <c r="D16" t="s">
-        <v>17</v>
-      </c>
-      <c r="E16" t="s">
-        <v>25</v>
+        <v>157</v>
+      </c>
+      <c r="C16">
+        <v>66</v>
+      </c>
+      <c r="D16">
+        <v>77</v>
+      </c>
+      <c r="E16">
+        <v>88</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
@@ -1134,16 +1182,16 @@
         <v>30</v>
       </c>
       <c r="B17" t="s">
-        <v>45</v>
+        <v>158</v>
       </c>
       <c r="C17" t="s">
-        <v>10</v>
+        <v>161</v>
       </c>
       <c r="D17" t="s">
-        <v>28</v>
+        <v>160</v>
       </c>
       <c r="E17" t="s">
-        <v>26</v>
+        <v>159</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
@@ -1151,16 +1199,16 @@
         <v>30</v>
       </c>
       <c r="B18" t="s">
-        <v>46</v>
-      </c>
-      <c r="C18" t="s">
-        <v>11</v>
+        <v>162</v>
+      </c>
+      <c r="C18">
+        <v>4</v>
       </c>
       <c r="D18" t="s">
-        <v>29</v>
+        <v>164</v>
       </c>
       <c r="E18" t="s">
-        <v>27</v>
+        <v>163</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
@@ -1168,7 +1216,7 @@
         <v>31</v>
       </c>
       <c r="B19" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="C19" t="s">
         <v>2</v>
@@ -1185,7 +1233,7 @@
         <v>31</v>
       </c>
       <c r="B20" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="C20" t="s">
         <v>3</v>
@@ -1202,7 +1250,7 @@
         <v>31</v>
       </c>
       <c r="B21" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="C21" t="s">
         <v>4</v>
@@ -1219,7 +1267,7 @@
         <v>31</v>
       </c>
       <c r="B22" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="C22" t="s">
         <v>5</v>
@@ -1236,7 +1284,7 @@
         <v>31</v>
       </c>
       <c r="B23" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="C23" t="s">
         <v>6</v>
@@ -1253,7 +1301,7 @@
         <v>31</v>
       </c>
       <c r="B24" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="C24" t="s">
         <v>7</v>
@@ -1270,7 +1318,7 @@
         <v>31</v>
       </c>
       <c r="B25" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="C25" t="s">
         <v>8</v>
@@ -1287,7 +1335,7 @@
         <v>31</v>
       </c>
       <c r="B26" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="C26" t="s">
         <v>9</v>
@@ -1304,7 +1352,7 @@
         <v>31</v>
       </c>
       <c r="B27" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="C27" t="s">
         <v>10</v>
@@ -1321,7 +1369,7 @@
         <v>31</v>
       </c>
       <c r="B28" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="C28" t="s">
         <v>11</v>
@@ -1338,7 +1386,7 @@
         <v>32</v>
       </c>
       <c r="B29" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="C29" t="s">
         <v>2</v>
@@ -1355,7 +1403,7 @@
         <v>32</v>
       </c>
       <c r="B30" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="C30" t="s">
         <v>3</v>
@@ -1372,7 +1420,7 @@
         <v>32</v>
       </c>
       <c r="B31" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="C31" t="s">
         <v>4</v>
@@ -1389,7 +1437,7 @@
         <v>32</v>
       </c>
       <c r="B32" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="C32" t="s">
         <v>5</v>
@@ -1406,7 +1454,7 @@
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="C33" t="s">
         <v>6</v>
@@ -1423,7 +1471,7 @@
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="C34" t="s">
         <v>7</v>
@@ -1440,7 +1488,7 @@
         <v>32</v>
       </c>
       <c r="B35" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="C35" t="s">
         <v>8</v>
@@ -1457,7 +1505,7 @@
         <v>32</v>
       </c>
       <c r="B36" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="C36" t="s">
         <v>9</v>
@@ -1474,7 +1522,7 @@
         <v>32</v>
       </c>
       <c r="B37" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="C37" t="s">
         <v>10</v>
@@ -1491,7 +1539,7 @@
         <v>32</v>
       </c>
       <c r="B38" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="C38" t="s">
         <v>11</v>
@@ -1508,7 +1556,7 @@
         <v>1</v>
       </c>
       <c r="B39" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="C39" t="s">
         <v>2</v>
@@ -1525,7 +1573,7 @@
         <v>1</v>
       </c>
       <c r="B40" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="C40" t="s">
         <v>3</v>
@@ -1542,7 +1590,7 @@
         <v>1</v>
       </c>
       <c r="B41" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="C41" t="s">
         <v>4</v>
@@ -1559,7 +1607,7 @@
         <v>1</v>
       </c>
       <c r="B42" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="C42" t="s">
         <v>5</v>
@@ -1576,7 +1624,7 @@
         <v>1</v>
       </c>
       <c r="B43" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="C43" t="s">
         <v>6</v>
@@ -1593,7 +1641,7 @@
         <v>1</v>
       </c>
       <c r="B44" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="C44" t="s">
         <v>7</v>
@@ -1610,7 +1658,7 @@
         <v>1</v>
       </c>
       <c r="B45" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="C45" t="s">
         <v>8</v>
@@ -1627,7 +1675,7 @@
         <v>1</v>
       </c>
       <c r="B46" t="s">
-        <v>74</v>
+        <v>64</v>
       </c>
       <c r="C46" t="s">
         <v>9</v>
@@ -1644,7 +1692,7 @@
         <v>1</v>
       </c>
       <c r="B47" t="s">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="C47" t="s">
         <v>10</v>
@@ -1661,7 +1709,7 @@
         <v>1</v>
       </c>
       <c r="B48" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="C48" t="s">
         <v>11</v>
@@ -1678,7 +1726,7 @@
         <v>33</v>
       </c>
       <c r="B49" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="C49" t="s">
         <v>2</v>
@@ -1695,7 +1743,7 @@
         <v>33</v>
       </c>
       <c r="B50" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="C50" t="s">
         <v>3</v>
@@ -1712,7 +1760,7 @@
         <v>33</v>
       </c>
       <c r="B51" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="C51" t="s">
         <v>4</v>
@@ -1729,7 +1777,7 @@
         <v>33</v>
       </c>
       <c r="B52" t="s">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="C52" t="s">
         <v>5</v>
@@ -1746,7 +1794,7 @@
         <v>33</v>
       </c>
       <c r="B53" t="s">
-        <v>81</v>
+        <v>71</v>
       </c>
       <c r="C53" t="s">
         <v>6</v>
@@ -1763,7 +1811,7 @@
         <v>33</v>
       </c>
       <c r="B54" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="C54" t="s">
         <v>7</v>
@@ -1780,7 +1828,7 @@
         <v>33</v>
       </c>
       <c r="B55" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="C55" t="s">
         <v>8</v>
@@ -1797,7 +1845,7 @@
         <v>33</v>
       </c>
       <c r="B56" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="C56" t="s">
         <v>9</v>
@@ -1814,7 +1862,7 @@
         <v>33</v>
       </c>
       <c r="B57" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="C57" t="s">
         <v>10</v>
@@ -1831,7 +1879,7 @@
         <v>33</v>
       </c>
       <c r="B58" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="C58" t="s">
         <v>11</v>
@@ -1848,7 +1896,7 @@
         <v>34</v>
       </c>
       <c r="B59" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="C59" t="s">
         <v>2</v>
@@ -1865,7 +1913,7 @@
         <v>34</v>
       </c>
       <c r="B60" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="C60" t="s">
         <v>3</v>
@@ -1882,7 +1930,7 @@
         <v>34</v>
       </c>
       <c r="B61" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="C61" t="s">
         <v>4</v>
@@ -1899,7 +1947,7 @@
         <v>34</v>
       </c>
       <c r="B62" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="C62" t="s">
         <v>5</v>
@@ -1916,7 +1964,7 @@
         <v>34</v>
       </c>
       <c r="B63" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="C63" t="s">
         <v>6</v>
@@ -1933,7 +1981,7 @@
         <v>34</v>
       </c>
       <c r="B64" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="C64" t="s">
         <v>7</v>
@@ -1950,7 +1998,7 @@
         <v>34</v>
       </c>
       <c r="B65" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
       <c r="C65" t="s">
         <v>8</v>
@@ -1967,7 +2015,7 @@
         <v>34</v>
       </c>
       <c r="B66" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
       <c r="C66" t="s">
         <v>9</v>
@@ -1984,7 +2032,7 @@
         <v>34</v>
       </c>
       <c r="B67" t="s">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="C67" t="s">
         <v>10</v>
@@ -2001,7 +2049,7 @@
         <v>34</v>
       </c>
       <c r="B68" t="s">
-        <v>96</v>
+        <v>86</v>
       </c>
       <c r="C68" t="s">
         <v>11</v>
@@ -2018,7 +2066,7 @@
         <v>36</v>
       </c>
       <c r="B69" t="s">
-        <v>97</v>
+        <v>87</v>
       </c>
       <c r="C69" t="s">
         <v>2</v>
@@ -2035,7 +2083,7 @@
         <v>36</v>
       </c>
       <c r="B70" t="s">
-        <v>98</v>
+        <v>88</v>
       </c>
       <c r="C70" t="s">
         <v>3</v>
@@ -2052,7 +2100,7 @@
         <v>36</v>
       </c>
       <c r="B71" t="s">
-        <v>99</v>
+        <v>89</v>
       </c>
       <c r="C71" t="s">
         <v>4</v>
@@ -2069,7 +2117,7 @@
         <v>36</v>
       </c>
       <c r="B72" t="s">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="C72" t="s">
         <v>5</v>
@@ -2086,7 +2134,7 @@
         <v>36</v>
       </c>
       <c r="B73" t="s">
-        <v>101</v>
+        <v>91</v>
       </c>
       <c r="C73" t="s">
         <v>6</v>
@@ -2103,7 +2151,7 @@
         <v>36</v>
       </c>
       <c r="B74" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
       <c r="C74" t="s">
         <v>7</v>
@@ -2120,7 +2168,7 @@
         <v>36</v>
       </c>
       <c r="B75" t="s">
-        <v>103</v>
+        <v>93</v>
       </c>
       <c r="C75" t="s">
         <v>8</v>
@@ -2137,7 +2185,7 @@
         <v>36</v>
       </c>
       <c r="B76" t="s">
-        <v>104</v>
+        <v>94</v>
       </c>
       <c r="C76" t="s">
         <v>9</v>
@@ -2154,7 +2202,7 @@
         <v>36</v>
       </c>
       <c r="B77" t="s">
-        <v>105</v>
+        <v>95</v>
       </c>
       <c r="C77" t="s">
         <v>10</v>
@@ -2171,7 +2219,7 @@
         <v>36</v>
       </c>
       <c r="B78" t="s">
-        <v>106</v>
+        <v>96</v>
       </c>
       <c r="C78" t="s">
         <v>11</v>
@@ -2188,7 +2236,7 @@
         <v>35</v>
       </c>
       <c r="B79" t="s">
-        <v>107</v>
+        <v>97</v>
       </c>
       <c r="C79" t="s">
         <v>2</v>
@@ -2205,7 +2253,7 @@
         <v>35</v>
       </c>
       <c r="B80" t="s">
-        <v>108</v>
+        <v>98</v>
       </c>
       <c r="C80" t="s">
         <v>3</v>
@@ -2222,7 +2270,7 @@
         <v>35</v>
       </c>
       <c r="B81" t="s">
-        <v>109</v>
+        <v>99</v>
       </c>
       <c r="C81" t="s">
         <v>4</v>
@@ -2239,7 +2287,7 @@
         <v>35</v>
       </c>
       <c r="B82" t="s">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="C82" t="s">
         <v>5</v>
@@ -2256,7 +2304,7 @@
         <v>35</v>
       </c>
       <c r="B83" t="s">
-        <v>111</v>
+        <v>101</v>
       </c>
       <c r="C83" t="s">
         <v>6</v>
@@ -2273,7 +2321,7 @@
         <v>35</v>
       </c>
       <c r="B84" t="s">
-        <v>112</v>
+        <v>102</v>
       </c>
       <c r="C84" t="s">
         <v>7</v>
@@ -2290,7 +2338,7 @@
         <v>35</v>
       </c>
       <c r="B85" t="s">
-        <v>113</v>
+        <v>103</v>
       </c>
       <c r="C85" t="s">
         <v>8</v>
@@ -2307,7 +2355,7 @@
         <v>35</v>
       </c>
       <c r="B86" t="s">
-        <v>114</v>
+        <v>104</v>
       </c>
       <c r="C86" t="s">
         <v>9</v>
@@ -2324,7 +2372,7 @@
         <v>35</v>
       </c>
       <c r="B87" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
       <c r="C87" t="s">
         <v>10</v>
@@ -2341,7 +2389,7 @@
         <v>35</v>
       </c>
       <c r="B88" t="s">
-        <v>116</v>
+        <v>106</v>
       </c>
       <c r="C88" t="s">
         <v>11</v>

--- a/app/src/main/assets/planety_quizz.xlsx
+++ b/app/src/main/assets/planety_quizz.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/24b8b251d8fae0f4/PEVS/__BAKALARKA/app/src/main/assets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="145" documentId="8_{C90CBB8E-5315-4C0C-B1B1-8548AA6FBBDF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{36477707-8F7D-4918-859C-8C47AF6CD906}"/>
+  <xr:revisionPtr revIDLastSave="191" documentId="8_{C90CBB8E-5315-4C0C-B1B1-8548AA6FBBDF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{80D3A1AC-933D-4CEC-B730-1BF2674295D5}"/>
   <bookViews>
-    <workbookView xWindow="4776" yWindow="6408" windowWidth="17280" windowHeight="8880" xr2:uid="{59B42603-5E37-44C8-B453-97DD41C0E15D}"/>
+    <workbookView xWindow="4776" yWindow="3360" windowWidth="17280" windowHeight="8880" xr2:uid="{59B42603-5E37-44C8-B453-97DD41C0E15D}"/>
   </bookViews>
   <sheets>
     <sheet name="Hárok1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="430" uniqueCount="165">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="421" uniqueCount="189">
   <si>
     <t>SLNKO</t>
   </si>
@@ -149,36 +149,6 @@
     <t>URAN</t>
   </si>
   <si>
-    <t>Otazka Venusa 1</t>
-  </si>
-  <si>
-    <t>Otazka Venusa 2</t>
-  </si>
-  <si>
-    <t>Otazka Venusa 3</t>
-  </si>
-  <si>
-    <t>Otazka Venusa 4</t>
-  </si>
-  <si>
-    <t>Otazka Venusa 5</t>
-  </si>
-  <si>
-    <t>Otazka Venusa 6</t>
-  </si>
-  <si>
-    <t>Otazka Venusa 7</t>
-  </si>
-  <si>
-    <t>Otazka Venusa 8</t>
-  </si>
-  <si>
-    <t>Otazka Venusa 9</t>
-  </si>
-  <si>
-    <t>Otazka Venusa 10</t>
-  </si>
-  <si>
     <t>Otazka Zem 1</t>
   </si>
   <si>
@@ -531,6 +501,108 @@
   </si>
   <si>
     <t>Jar a Leto</t>
+  </si>
+  <si>
+    <t>Koľká planéta od Slnka je Venuša?</t>
+  </si>
+  <si>
+    <t>Čo ju zahaľuje?</t>
+  </si>
+  <si>
+    <t>Husté mraky</t>
+  </si>
+  <si>
+    <t>Voda</t>
+  </si>
+  <si>
+    <t>Zem</t>
+  </si>
+  <si>
+    <t>Je pokrytý prachom a znetvorený dopadmi meteoritov</t>
+  </si>
+  <si>
+    <t>Mimozenštanmi</t>
+  </si>
+  <si>
+    <t>Veľkými jazerami</t>
+  </si>
+  <si>
+    <t>Koľko dosahuje povrchová teplota?</t>
+  </si>
+  <si>
+    <t>Koľko mesiacov má Venuša?</t>
+  </si>
+  <si>
+    <t>Koľko trvá dĺžka roka  na Venuši?</t>
+  </si>
+  <si>
+    <t>224,7 dňa</t>
+  </si>
+  <si>
+    <t>365 dní</t>
+  </si>
+  <si>
+    <t>56 dní</t>
+  </si>
+  <si>
+    <t>Je na Venuši deň dlhší ako rok?</t>
+  </si>
+  <si>
+    <t>áno</t>
+  </si>
+  <si>
+    <t>nie</t>
+  </si>
+  <si>
+    <t>možno</t>
+  </si>
+  <si>
+    <t>K čomu by si vedel prirovnať obežnú dráhu?</t>
+  </si>
+  <si>
+    <t>Ku kruhu</t>
+  </si>
+  <si>
+    <t>Ku štvorci</t>
+  </si>
+  <si>
+    <t>Ku elipse</t>
+  </si>
+  <si>
+    <t>Ako rotuje Venuša?</t>
+  </si>
+  <si>
+    <t>V opačnom smere ako väčšina planét</t>
+  </si>
+  <si>
+    <t>Proti hodinovým ručičkám</t>
+  </si>
+  <si>
+    <t>Nerotuje</t>
+  </si>
+  <si>
+    <t>Na čo je bohatá atmosféra?</t>
+  </si>
+  <si>
+    <t>Oxid uhličitý</t>
+  </si>
+  <si>
+    <t>Vodík</t>
+  </si>
+  <si>
+    <t>Kyslík</t>
+  </si>
+  <si>
+    <t>Do okej výšky sa dvíha armosféra?</t>
+  </si>
+  <si>
+    <t>80 km</t>
+  </si>
+  <si>
+    <t>50 km</t>
+  </si>
+  <si>
+    <t>120 km</t>
   </si>
 </sst>
 </file>
@@ -574,8 +646,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normálna" xfId="0" builtinId="0"/>
@@ -896,8 +969,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89EE18A4-0E79-4F3E-B37F-340BDF55F156}">
   <dimension ref="A1:E88"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -910,16 +983,16 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>109</v>
+        <v>99</v>
       </c>
       <c r="C1" t="s">
-        <v>108</v>
+        <v>98</v>
       </c>
       <c r="D1" t="s">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="E1" t="s">
-        <v>107</v>
+        <v>97</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
@@ -927,16 +1000,16 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>111</v>
+        <v>101</v>
       </c>
       <c r="C2" t="s">
-        <v>113</v>
+        <v>103</v>
       </c>
       <c r="D2" t="s">
-        <v>114</v>
+        <v>104</v>
       </c>
       <c r="E2" t="s">
-        <v>112</v>
+        <v>102</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
@@ -944,16 +1017,16 @@
         <v>0</v>
       </c>
       <c r="B3" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
       <c r="C3" t="s">
-        <v>117</v>
+        <v>107</v>
       </c>
       <c r="D3" t="s">
-        <v>118</v>
+        <v>108</v>
       </c>
       <c r="E3" t="s">
-        <v>116</v>
+        <v>106</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
@@ -961,16 +1034,16 @@
         <v>0</v>
       </c>
       <c r="B4" t="s">
-        <v>119</v>
+        <v>109</v>
       </c>
       <c r="C4" t="s">
-        <v>121</v>
+        <v>111</v>
       </c>
       <c r="D4" t="s">
-        <v>122</v>
+        <v>112</v>
       </c>
       <c r="E4" t="s">
-        <v>120</v>
+        <v>110</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
@@ -978,16 +1051,16 @@
         <v>0</v>
       </c>
       <c r="B5" t="s">
-        <v>123</v>
+        <v>113</v>
       </c>
       <c r="C5" t="s">
-        <v>126</v>
+        <v>116</v>
       </c>
       <c r="D5" t="s">
-        <v>125</v>
+        <v>115</v>
       </c>
       <c r="E5" t="s">
-        <v>124</v>
+        <v>114</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
@@ -995,16 +1068,16 @@
         <v>0</v>
       </c>
       <c r="B6" t="s">
-        <v>127</v>
+        <v>117</v>
       </c>
       <c r="C6" t="s">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="D6" t="s">
-        <v>128</v>
+        <v>118</v>
       </c>
       <c r="E6" t="s">
-        <v>129</v>
+        <v>119</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
@@ -1012,16 +1085,16 @@
         <v>0</v>
       </c>
       <c r="B7" t="s">
-        <v>131</v>
+        <v>121</v>
       </c>
       <c r="C7" t="s">
-        <v>133</v>
+        <v>123</v>
       </c>
       <c r="D7" t="s">
-        <v>134</v>
+        <v>124</v>
       </c>
       <c r="E7" t="s">
-        <v>132</v>
+        <v>122</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
@@ -1029,16 +1102,16 @@
         <v>0</v>
       </c>
       <c r="B8" t="s">
-        <v>135</v>
+        <v>125</v>
       </c>
       <c r="C8" t="s">
-        <v>137</v>
+        <v>127</v>
       </c>
       <c r="D8" t="s">
-        <v>138</v>
+        <v>128</v>
       </c>
       <c r="E8" t="s">
-        <v>136</v>
+        <v>126</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
@@ -1046,16 +1119,16 @@
         <v>30</v>
       </c>
       <c r="B9" t="s">
-        <v>139</v>
+        <v>129</v>
       </c>
       <c r="C9" t="s">
-        <v>141</v>
+        <v>131</v>
       </c>
       <c r="D9" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
       <c r="E9" t="s">
-        <v>140</v>
+        <v>130</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
@@ -1063,16 +1136,16 @@
         <v>30</v>
       </c>
       <c r="B10" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
       <c r="C10" t="s">
-        <v>145</v>
+        <v>135</v>
       </c>
       <c r="D10" t="s">
-        <v>146</v>
+        <v>136</v>
       </c>
       <c r="E10" t="s">
-        <v>144</v>
+        <v>134</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
@@ -1080,16 +1153,16 @@
         <v>30</v>
       </c>
       <c r="B11" t="s">
-        <v>147</v>
+        <v>137</v>
       </c>
       <c r="C11" t="s">
-        <v>129</v>
+        <v>119</v>
       </c>
       <c r="D11" t="s">
-        <v>149</v>
+        <v>139</v>
       </c>
       <c r="E11" t="s">
-        <v>148</v>
+        <v>138</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
@@ -1097,16 +1170,16 @@
         <v>30</v>
       </c>
       <c r="B12" t="s">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="C12" t="s">
-        <v>153</v>
+        <v>143</v>
       </c>
       <c r="D12" t="s">
-        <v>152</v>
+        <v>142</v>
       </c>
       <c r="E12" t="s">
-        <v>151</v>
+        <v>141</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
@@ -1114,15 +1187,15 @@
         <v>30</v>
       </c>
       <c r="B13" t="s">
-        <v>154</v>
-      </c>
-      <c r="C13">
+        <v>144</v>
+      </c>
+      <c r="C13" s="1">
         <v>55</v>
       </c>
-      <c r="D13">
+      <c r="D13" s="1">
         <v>30</v>
       </c>
-      <c r="E13">
+      <c r="E13" s="1">
         <v>-180</v>
       </c>
     </row>
@@ -1131,16 +1204,16 @@
         <v>30</v>
       </c>
       <c r="B14" t="s">
-        <v>155</v>
+        <v>145</v>
       </c>
       <c r="C14" t="s">
-        <v>7</v>
+        <v>161</v>
       </c>
       <c r="D14" t="s">
-        <v>15</v>
+        <v>162</v>
       </c>
       <c r="E14" t="s">
-        <v>23</v>
+        <v>160</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
@@ -1148,15 +1221,15 @@
         <v>30</v>
       </c>
       <c r="B15" t="s">
-        <v>156</v>
-      </c>
-      <c r="C15">
+        <v>146</v>
+      </c>
+      <c r="C15" s="1">
         <v>1</v>
       </c>
-      <c r="D15">
+      <c r="D15" s="1">
         <v>4</v>
       </c>
-      <c r="E15">
+      <c r="E15" s="1">
         <v>0</v>
       </c>
     </row>
@@ -1165,15 +1238,15 @@
         <v>30</v>
       </c>
       <c r="B16" t="s">
-        <v>157</v>
-      </c>
-      <c r="C16">
+        <v>147</v>
+      </c>
+      <c r="C16" s="1">
         <v>66</v>
       </c>
-      <c r="D16">
+      <c r="D16" s="1">
         <v>77</v>
       </c>
-      <c r="E16">
+      <c r="E16" s="1">
         <v>88</v>
       </c>
     </row>
@@ -1182,16 +1255,16 @@
         <v>30</v>
       </c>
       <c r="B17" t="s">
-        <v>158</v>
+        <v>148</v>
       </c>
       <c r="C17" t="s">
-        <v>161</v>
+        <v>151</v>
       </c>
       <c r="D17" t="s">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="E17" t="s">
-        <v>159</v>
+        <v>149</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
@@ -1199,16 +1272,16 @@
         <v>30</v>
       </c>
       <c r="B18" t="s">
-        <v>162</v>
+        <v>152</v>
       </c>
       <c r="C18">
         <v>4</v>
       </c>
       <c r="D18" t="s">
-        <v>164</v>
+        <v>154</v>
       </c>
       <c r="E18" t="s">
-        <v>163</v>
+        <v>153</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
@@ -1216,16 +1289,16 @@
         <v>31</v>
       </c>
       <c r="B19" t="s">
-        <v>37</v>
-      </c>
-      <c r="C19" t="s">
+        <v>155</v>
+      </c>
+      <c r="C19" s="1">
+        <v>1</v>
+      </c>
+      <c r="D19" s="1">
+        <v>3</v>
+      </c>
+      <c r="E19" s="1">
         <v>2</v>
-      </c>
-      <c r="D19" t="s">
-        <v>10</v>
-      </c>
-      <c r="E19" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
@@ -1233,16 +1306,16 @@
         <v>31</v>
       </c>
       <c r="B20" t="s">
-        <v>38</v>
+        <v>156</v>
       </c>
       <c r="C20" t="s">
-        <v>3</v>
+        <v>158</v>
       </c>
       <c r="D20" t="s">
-        <v>11</v>
+        <v>159</v>
       </c>
       <c r="E20" t="s">
-        <v>19</v>
+        <v>157</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
@@ -1250,16 +1323,16 @@
         <v>31</v>
       </c>
       <c r="B21" t="s">
-        <v>39</v>
-      </c>
-      <c r="C21" t="s">
-        <v>4</v>
-      </c>
-      <c r="D21" t="s">
-        <v>12</v>
-      </c>
-      <c r="E21" t="s">
-        <v>20</v>
+        <v>163</v>
+      </c>
+      <c r="C21" s="1">
+        <v>7867</v>
+      </c>
+      <c r="D21" s="1">
+        <v>566</v>
+      </c>
+      <c r="E21" s="1">
+        <v>464</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
@@ -1267,16 +1340,16 @@
         <v>31</v>
       </c>
       <c r="B22" t="s">
-        <v>40</v>
-      </c>
-      <c r="C22" t="s">
-        <v>5</v>
-      </c>
-      <c r="D22" t="s">
-        <v>13</v>
-      </c>
-      <c r="E22" t="s">
-        <v>21</v>
+        <v>164</v>
+      </c>
+      <c r="C22" s="1">
+        <v>1</v>
+      </c>
+      <c r="D22" s="1">
+        <v>4</v>
+      </c>
+      <c r="E22" s="1">
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
@@ -1284,16 +1357,16 @@
         <v>31</v>
       </c>
       <c r="B23" t="s">
-        <v>41</v>
+        <v>165</v>
       </c>
       <c r="C23" t="s">
-        <v>6</v>
+        <v>168</v>
       </c>
       <c r="D23" t="s">
-        <v>14</v>
+        <v>167</v>
       </c>
       <c r="E23" t="s">
-        <v>22</v>
+        <v>166</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
@@ -1301,16 +1374,16 @@
         <v>31</v>
       </c>
       <c r="B24" t="s">
-        <v>42</v>
+        <v>169</v>
       </c>
       <c r="C24" t="s">
-        <v>7</v>
+        <v>172</v>
       </c>
       <c r="D24" t="s">
-        <v>15</v>
+        <v>171</v>
       </c>
       <c r="E24" t="s">
-        <v>23</v>
+        <v>170</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
@@ -1318,16 +1391,16 @@
         <v>31</v>
       </c>
       <c r="B25" t="s">
-        <v>43</v>
+        <v>177</v>
       </c>
       <c r="C25" t="s">
-        <v>8</v>
+        <v>180</v>
       </c>
       <c r="D25" t="s">
-        <v>16</v>
+        <v>179</v>
       </c>
       <c r="E25" t="s">
-        <v>24</v>
+        <v>178</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
@@ -1335,16 +1408,16 @@
         <v>31</v>
       </c>
       <c r="B26" t="s">
-        <v>44</v>
+        <v>173</v>
       </c>
       <c r="C26" t="s">
-        <v>9</v>
+        <v>176</v>
       </c>
       <c r="D26" t="s">
-        <v>17</v>
+        <v>175</v>
       </c>
       <c r="E26" t="s">
-        <v>25</v>
+        <v>174</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.3">
@@ -1352,16 +1425,16 @@
         <v>31</v>
       </c>
       <c r="B27" t="s">
-        <v>45</v>
+        <v>181</v>
       </c>
       <c r="C27" t="s">
-        <v>10</v>
+        <v>184</v>
       </c>
       <c r="D27" t="s">
-        <v>28</v>
+        <v>183</v>
       </c>
       <c r="E27" t="s">
-        <v>26</v>
+        <v>182</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.3">
@@ -1369,16 +1442,16 @@
         <v>31</v>
       </c>
       <c r="B28" t="s">
-        <v>46</v>
+        <v>185</v>
       </c>
       <c r="C28" t="s">
-        <v>11</v>
+        <v>188</v>
       </c>
       <c r="D28" t="s">
-        <v>29</v>
+        <v>187</v>
       </c>
       <c r="E28" t="s">
-        <v>27</v>
+        <v>186</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.3">
@@ -1386,7 +1459,7 @@
         <v>32</v>
       </c>
       <c r="B29" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="C29" t="s">
         <v>2</v>
@@ -1403,7 +1476,7 @@
         <v>32</v>
       </c>
       <c r="B30" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="C30" t="s">
         <v>3</v>
@@ -1420,7 +1493,7 @@
         <v>32</v>
       </c>
       <c r="B31" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="C31" t="s">
         <v>4</v>
@@ -1437,7 +1510,7 @@
         <v>32</v>
       </c>
       <c r="B32" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="C32" t="s">
         <v>5</v>
@@ -1454,7 +1527,7 @@
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="C33" t="s">
         <v>6</v>
@@ -1471,7 +1544,7 @@
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="C34" t="s">
         <v>7</v>
@@ -1488,7 +1561,7 @@
         <v>32</v>
       </c>
       <c r="B35" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="C35" t="s">
         <v>8</v>
@@ -1505,7 +1578,7 @@
         <v>32</v>
       </c>
       <c r="B36" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="C36" t="s">
         <v>9</v>
@@ -1522,7 +1595,7 @@
         <v>32</v>
       </c>
       <c r="B37" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="C37" t="s">
         <v>10</v>
@@ -1539,7 +1612,7 @@
         <v>32</v>
       </c>
       <c r="B38" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="C38" t="s">
         <v>11</v>
@@ -1556,7 +1629,7 @@
         <v>1</v>
       </c>
       <c r="B39" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="C39" t="s">
         <v>2</v>
@@ -1573,7 +1646,7 @@
         <v>1</v>
       </c>
       <c r="B40" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="C40" t="s">
         <v>3</v>
@@ -1590,7 +1663,7 @@
         <v>1</v>
       </c>
       <c r="B41" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="C41" t="s">
         <v>4</v>
@@ -1607,7 +1680,7 @@
         <v>1</v>
       </c>
       <c r="B42" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="C42" t="s">
         <v>5</v>
@@ -1624,7 +1697,7 @@
         <v>1</v>
       </c>
       <c r="B43" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="C43" t="s">
         <v>6</v>
@@ -1641,7 +1714,7 @@
         <v>1</v>
       </c>
       <c r="B44" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="C44" t="s">
         <v>7</v>
@@ -1658,7 +1731,7 @@
         <v>1</v>
       </c>
       <c r="B45" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="C45" t="s">
         <v>8</v>
@@ -1675,7 +1748,7 @@
         <v>1</v>
       </c>
       <c r="B46" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="C46" t="s">
         <v>9</v>
@@ -1692,7 +1765,7 @@
         <v>1</v>
       </c>
       <c r="B47" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="C47" t="s">
         <v>10</v>
@@ -1709,7 +1782,7 @@
         <v>1</v>
       </c>
       <c r="B48" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="C48" t="s">
         <v>11</v>
@@ -1726,7 +1799,7 @@
         <v>33</v>
       </c>
       <c r="B49" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="C49" t="s">
         <v>2</v>
@@ -1743,7 +1816,7 @@
         <v>33</v>
       </c>
       <c r="B50" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="C50" t="s">
         <v>3</v>
@@ -1760,7 +1833,7 @@
         <v>33</v>
       </c>
       <c r="B51" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="C51" t="s">
         <v>4</v>
@@ -1777,7 +1850,7 @@
         <v>33</v>
       </c>
       <c r="B52" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="C52" t="s">
         <v>5</v>
@@ -1794,7 +1867,7 @@
         <v>33</v>
       </c>
       <c r="B53" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="C53" t="s">
         <v>6</v>
@@ -1811,7 +1884,7 @@
         <v>33</v>
       </c>
       <c r="B54" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="C54" t="s">
         <v>7</v>
@@ -1828,7 +1901,7 @@
         <v>33</v>
       </c>
       <c r="B55" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="C55" t="s">
         <v>8</v>
@@ -1845,7 +1918,7 @@
         <v>33</v>
       </c>
       <c r="B56" t="s">
-        <v>74</v>
+        <v>64</v>
       </c>
       <c r="C56" t="s">
         <v>9</v>
@@ -1862,7 +1935,7 @@
         <v>33</v>
       </c>
       <c r="B57" t="s">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="C57" t="s">
         <v>10</v>
@@ -1879,7 +1952,7 @@
         <v>33</v>
       </c>
       <c r="B58" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="C58" t="s">
         <v>11</v>
@@ -1896,7 +1969,7 @@
         <v>34</v>
       </c>
       <c r="B59" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="C59" t="s">
         <v>2</v>
@@ -1913,7 +1986,7 @@
         <v>34</v>
       </c>
       <c r="B60" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="C60" t="s">
         <v>3</v>
@@ -1930,7 +2003,7 @@
         <v>34</v>
       </c>
       <c r="B61" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="C61" t="s">
         <v>4</v>
@@ -1947,7 +2020,7 @@
         <v>34</v>
       </c>
       <c r="B62" t="s">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="C62" t="s">
         <v>5</v>
@@ -1964,7 +2037,7 @@
         <v>34</v>
       </c>
       <c r="B63" t="s">
-        <v>81</v>
+        <v>71</v>
       </c>
       <c r="C63" t="s">
         <v>6</v>
@@ -1981,7 +2054,7 @@
         <v>34</v>
       </c>
       <c r="B64" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="C64" t="s">
         <v>7</v>
@@ -1998,7 +2071,7 @@
         <v>34</v>
       </c>
       <c r="B65" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="C65" t="s">
         <v>8</v>
@@ -2015,7 +2088,7 @@
         <v>34</v>
       </c>
       <c r="B66" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="C66" t="s">
         <v>9</v>
@@ -2032,7 +2105,7 @@
         <v>34</v>
       </c>
       <c r="B67" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="C67" t="s">
         <v>10</v>
@@ -2049,7 +2122,7 @@
         <v>34</v>
       </c>
       <c r="B68" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="C68" t="s">
         <v>11</v>
@@ -2066,7 +2139,7 @@
         <v>36</v>
       </c>
       <c r="B69" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="C69" t="s">
         <v>2</v>
@@ -2083,7 +2156,7 @@
         <v>36</v>
       </c>
       <c r="B70" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="C70" t="s">
         <v>3</v>
@@ -2100,7 +2173,7 @@
         <v>36</v>
       </c>
       <c r="B71" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="C71" t="s">
         <v>4</v>
@@ -2117,7 +2190,7 @@
         <v>36</v>
       </c>
       <c r="B72" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="C72" t="s">
         <v>5</v>
@@ -2134,7 +2207,7 @@
         <v>36</v>
       </c>
       <c r="B73" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="C73" t="s">
         <v>6</v>
@@ -2151,7 +2224,7 @@
         <v>36</v>
       </c>
       <c r="B74" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="C74" t="s">
         <v>7</v>
@@ -2168,7 +2241,7 @@
         <v>36</v>
       </c>
       <c r="B75" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
       <c r="C75" t="s">
         <v>8</v>
@@ -2185,7 +2258,7 @@
         <v>36</v>
       </c>
       <c r="B76" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
       <c r="C76" t="s">
         <v>9</v>
@@ -2202,7 +2275,7 @@
         <v>36</v>
       </c>
       <c r="B77" t="s">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="C77" t="s">
         <v>10</v>
@@ -2219,7 +2292,7 @@
         <v>36</v>
       </c>
       <c r="B78" t="s">
-        <v>96</v>
+        <v>86</v>
       </c>
       <c r="C78" t="s">
         <v>11</v>
@@ -2236,7 +2309,7 @@
         <v>35</v>
       </c>
       <c r="B79" t="s">
-        <v>97</v>
+        <v>87</v>
       </c>
       <c r="C79" t="s">
         <v>2</v>
@@ -2253,7 +2326,7 @@
         <v>35</v>
       </c>
       <c r="B80" t="s">
-        <v>98</v>
+        <v>88</v>
       </c>
       <c r="C80" t="s">
         <v>3</v>
@@ -2270,7 +2343,7 @@
         <v>35</v>
       </c>
       <c r="B81" t="s">
-        <v>99</v>
+        <v>89</v>
       </c>
       <c r="C81" t="s">
         <v>4</v>
@@ -2287,7 +2360,7 @@
         <v>35</v>
       </c>
       <c r="B82" t="s">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="C82" t="s">
         <v>5</v>
@@ -2304,7 +2377,7 @@
         <v>35</v>
       </c>
       <c r="B83" t="s">
-        <v>101</v>
+        <v>91</v>
       </c>
       <c r="C83" t="s">
         <v>6</v>
@@ -2321,7 +2394,7 @@
         <v>35</v>
       </c>
       <c r="B84" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
       <c r="C84" t="s">
         <v>7</v>
@@ -2338,7 +2411,7 @@
         <v>35</v>
       </c>
       <c r="B85" t="s">
-        <v>103</v>
+        <v>93</v>
       </c>
       <c r="C85" t="s">
         <v>8</v>
@@ -2355,7 +2428,7 @@
         <v>35</v>
       </c>
       <c r="B86" t="s">
-        <v>104</v>
+        <v>94</v>
       </c>
       <c r="C86" t="s">
         <v>9</v>
@@ -2372,7 +2445,7 @@
         <v>35</v>
       </c>
       <c r="B87" t="s">
-        <v>105</v>
+        <v>95</v>
       </c>
       <c r="C87" t="s">
         <v>10</v>
@@ -2389,7 +2462,7 @@
         <v>35</v>
       </c>
       <c r="B88" t="s">
-        <v>106</v>
+        <v>96</v>
       </c>
       <c r="C88" t="s">
         <v>11</v>
